--- a/docs/01 - Tai lieu du an/Kế hoạch dự án theo Agile - nhóm 10.xlsx
+++ b/docs/01 - Tai lieu du an/Kế hoạch dự án theo Agile - nhóm 10.xlsx
@@ -1,12 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Group-10-156724-Software-Engineering\docs\01 - Tai lieu du an\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82F85E94-A16E-4C32-83B8-ECB0D1877FCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Agile Project Plan - BLANK" sheetId="1" r:id="rId4"/>
+    <sheet name="Agile Project Plan - BLANK" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="Pe8BraggAvRRlG1msCZuKBAo23XtUzKKGhVHiXR4jO8="/>
@@ -105,10 +114,6 @@
     <t>Thiết kế hệ thống tổng thể</t>
   </si>
   <si>
-    <t xml:space="preserve">Nguyễn Văn Hoàn
-</t>
-  </si>
-  <si>
     <t>Xác định kiến trúc, mô hình dữ liệu.</t>
   </si>
   <si>
@@ -116,10 +121,6 @@
   </si>
   <si>
     <t>Thiết kế cơ sở dữ liệu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trần Đức Huy
-</t>
   </si>
   <si>
     <t>Tạo mô hình ERD, xác định bảng dữ liệu chính.</t>
@@ -131,17 +132,10 @@
     <t>Thiết kế UI/UX</t>
   </si>
   <si>
-    <t xml:space="preserve">Phan Đức Quyền
-</t>
-  </si>
-  <si>
     <t>Xây dựng wireframe, mockup giao diện.</t>
   </si>
   <si>
     <t>Sprint 2</t>
-  </si>
-  <si>
-    <t>Phan Đức Quyền</t>
   </si>
   <si>
     <t>Xây dựng module quản lý thu phí</t>
@@ -186,9 +180,6 @@
     <t>Sprint 4</t>
   </si>
   <si>
-    <t>Nguyễn Văn Hoàn</t>
-  </si>
-  <si>
     <t>Kiểm thử module quản lý thu phí</t>
   </si>
   <si>
@@ -208,9 +199,6 @@
   </si>
   <si>
     <t>Sprint 5</t>
-  </si>
-  <si>
-    <t>Trần Đức Huy</t>
   </si>
   <si>
     <t>Kiểm thử hệ thống tổng thể</t>
@@ -242,57 +230,80 @@
   <si>
     <t>Báo cáo tiến độ, nghiệm thu với khách hàng.</t>
   </si>
+  <si>
+    <t>Nguyễn Mạnh Thái Hà</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nguyễn Văn Thành Đạt
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nguyễn Thanh Tân
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nguyễn Trường Sơn
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nguyễn Minh Quân
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nguyễn Mạnh Thái Hà
+</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yy"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Barlow"/>
     </font>
     <font>
       <b/>
-      <sz val="22.0"/>
+      <sz val="22"/>
       <color rgb="FF7F7F7F"/>
       <name val="Barlow"/>
     </font>
     <font>
       <b/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color theme="0"/>
       <name val="Barlow"/>
     </font>
     <font>
       <b/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color theme="0"/>
       <name val="Roboto"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Roboto"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Roboto"/>
     </font>
     <font>
       <b/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Barlow"/>
     </font>
@@ -302,7 +313,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -336,12 +347,19 @@
     </fill>
   </fills>
   <borders count="3">
-    <border/>
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -356,129 +374,149 @@
       <bottom style="thin">
         <color rgb="FFBFBFBF"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+  <cellXfs count="36">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="2" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="2" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="2" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="1" numFmtId="16" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="16" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="1" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="2" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="1" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf borderId="2" fillId="4" fontId="6" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" readingOrder="1" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="1" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf borderId="2" fillId="2" fontId="6" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" readingOrder="1" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="1" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf borderId="2" fillId="5" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="5" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="2" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="6" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="6" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="5" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="6" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="2" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="1" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf borderId="2" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="16" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="9" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="16" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="1"/>
+  <c:style val="2"/>
   <c:chart>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.06770786204128922"/>
-          <c:y val="0.043010752688172046"/>
-          <c:w val="0.9075736833758912"/>
-          <c:h val="0.880722403496089"/>
+          <c:x val="6.7707862041289216E-2"/>
+          <c:y val="4.3010752688172046E-2"/>
+          <c:w val="0.90757368337589117"/>
+          <c:h val="0.88072240349608899"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
         <c:barDir val="bar"/>
         <c:grouping val="stacked"/>
+        <c:varyColors val="1"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -495,17 +533,187 @@
               </a:solidFill>
             </a:ln>
           </c:spPr>
+          <c:invertIfNegative val="1"/>
           <c:cat>
             <c:strRef>
               <c:f>'Agile Project Plan - BLANK'!$C$6:$C$29</c:f>
+              <c:strCache>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>Sprint 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Feature 1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Feature 2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Feature 3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Feature 4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Sprint 2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Feature 1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Feature 2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Feature 3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Sprint 3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Feature 1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Feature 2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Feature 3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Sprint 4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Feature 1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Feature 2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Feature 3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Sprint 5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Feature 1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Feature 2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Sprint 6</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Feature 1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Feature 2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Feature 3</c:v>
+                </c:pt>
+              </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'Agile Project Plan - BLANK'!$G$6:$G$29</c:f>
-              <c:numCache/>
+              <c:numCache>
+                <c:formatCode>m/d/yy</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>45263</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45263</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45263</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45263</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45263</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45274</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45274</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45274</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45274</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45281</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>45281</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>45285</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>45296</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>45300</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>45300</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>45300</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>45301</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>45303</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>45303</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>45303</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>45303</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>45306</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45306</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45325</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
+              <c14:invertSolidFillFmt>
+                <c14:spPr xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                  <a:ln cmpd="sng">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                  </a:ln>
+                </c14:spPr>
+              </c14:invertSolidFillFmt>
+            </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-84A0-49EB-A08F-A390EEE53798}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -523,18 +731,197 @@
               </a:solidFill>
             </a:ln>
           </c:spPr>
+          <c:invertIfNegative val="1"/>
           <c:cat>
             <c:strRef>
               <c:f>'Agile Project Plan - BLANK'!$C$6:$C$29</c:f>
+              <c:strCache>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>Sprint 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Feature 1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Feature 2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Feature 3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Feature 4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Sprint 2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Feature 1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Feature 2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Feature 3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Sprint 3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Feature 1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Feature 2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Feature 3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Sprint 4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Feature 1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Feature 2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Feature 3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Sprint 5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Feature 1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Feature 2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Sprint 6</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Feature 1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Feature 2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Feature 3</c:v>
+                </c:pt>
+              </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'Agile Project Plan - BLANK'!$I$6:$I$29</c:f>
-              <c:numCache/>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
+              <c14:invertSolidFillFmt>
+                <c14:spPr xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                  <a:ln cmpd="sng">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                  </a:ln>
+                </c14:spPr>
+              </c14:invertSolidFillFmt>
+            </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-84A0-49EB-A08F-A390EEE53798}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
         <c:overlap val="100"/>
         <c:axId val="1042714459"/>
         <c:axId val="1262896578"/>
@@ -560,15 +947,7 @@
                     <a:latin typeface="+mn-lt"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:r>
-                  <a:rPr b="0">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                  </a:rPr>
-                  <a:t/>
-                </a:r>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -577,22 +956,28 @@
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
-        <c:spPr/>
+        <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
           <a:lstStyle/>
           <a:p>
             <a:pPr lvl="0">
-              <a:defRPr b="0" i="0" sz="1000">
+              <a:defRPr sz="1000" b="0" i="0">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:latin typeface="Century Gothic"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1262896578"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="1262896578"/>
@@ -615,21 +1000,13 @@
                     <a:latin typeface="+mn-lt"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:r>
-                  <a:rPr b="0">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                  </a:rPr>
-                  <a:t/>
-                </a:r>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
           <c:overlay val="0"/>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="m/d/yy" sourceLinked="1"/>
         <c:majorTickMark val="cross"/>
         <c:minorTickMark val="cross"/>
         <c:tickLblPos val="nextTo"/>
@@ -648,19 +1025,28 @@
                 <a:latin typeface="+mn-lt"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1042714459"/>
         <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -669,9 +1055,15 @@
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="15449550" cy="4000500"/>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="1986675042" name="Chart 1"/>
+        <xdr:cNvPr id="1986675042" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000062416A76}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -680,7 +1072,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -690,7 +1082,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -880,37 +1272,40 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FFF2F2F2"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
+  <dimension ref="A1:AE1005"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="11.22" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="3.33"/>
-    <col customWidth="1" min="2" max="2" width="7.56"/>
-    <col customWidth="1" min="3" max="4" width="19.78"/>
-    <col customWidth="1" min="5" max="6" width="17.0"/>
-    <col customWidth="1" min="7" max="7" width="11.0"/>
-    <col customWidth="1" min="8" max="8" width="10.33"/>
-    <col customWidth="1" min="9" max="9" width="12.78"/>
-    <col customWidth="1" min="10" max="10" width="14.67"/>
-    <col customWidth="1" min="11" max="11" width="50.56"/>
-    <col customWidth="1" min="12" max="12" width="3.33"/>
-    <col customWidth="1" min="13" max="31" width="11.0"/>
+    <col min="1" max="1" width="3.296875" customWidth="1"/>
+    <col min="2" max="2" width="7.59765625" customWidth="1"/>
+    <col min="3" max="4" width="19.796875" customWidth="1"/>
+    <col min="5" max="6" width="17" customWidth="1"/>
+    <col min="7" max="7" width="11" customWidth="1"/>
+    <col min="8" max="8" width="10.296875" customWidth="1"/>
+    <col min="9" max="9" width="12.796875" customWidth="1"/>
+    <col min="10" max="10" width="14.69921875" customWidth="1"/>
+    <col min="11" max="11" width="50.59765625" customWidth="1"/>
+    <col min="12" max="12" width="3.296875" customWidth="1"/>
+    <col min="13" max="31" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="45.0" customHeight="1">
+    <row r="1" spans="1:31" ht="45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -945,7 +1340,7 @@
       <c r="AD1" s="3"/>
       <c r="AE1" s="1"/>
     </row>
-    <row r="2" ht="34.5" customHeight="1">
+    <row r="2" spans="1:31" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="4" t="s">
@@ -990,7 +1385,7 @@
       <c r="AD2" s="3"/>
       <c r="AE2" s="1"/>
     </row>
-    <row r="3" ht="34.5" customHeight="1">
+    <row r="3" spans="1:31" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="9" t="s">
@@ -1035,7 +1430,7 @@
       <c r="AD3" s="3"/>
       <c r="AE3" s="1"/>
     </row>
-    <row r="4" ht="9.75" customHeight="1">
+    <row r="4" spans="1:31" ht="9.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="3"/>
@@ -1068,7 +1463,7 @@
       <c r="AD4" s="3"/>
       <c r="AE4" s="1"/>
     </row>
-    <row r="5" ht="31.5" customHeight="1">
+    <row r="5" spans="1:31" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1"/>
       <c r="B5" s="12" t="s">
         <v>12</v>
@@ -1121,7 +1516,7 @@
       <c r="AD5" s="3"/>
       <c r="AE5" s="3"/>
     </row>
-    <row r="6" ht="30.0" customHeight="1">
+    <row r="6" spans="1:31" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1"/>
       <c r="B6" s="13"/>
       <c r="C6" s="14" t="s">
@@ -1129,17 +1524,17 @@
       </c>
       <c r="D6" s="14"/>
       <c r="E6" s="14" t="s">
-        <v>8</v>
+        <v>68</v>
       </c>
       <c r="F6" s="14"/>
       <c r="G6" s="15">
-        <v>45263.0</v>
+        <v>45263</v>
       </c>
       <c r="H6" s="15">
-        <v>45272.0</v>
+        <v>45272</v>
       </c>
       <c r="I6" s="14">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="J6" s="14" t="s">
         <v>23</v>
@@ -1166,7 +1561,7 @@
       <c r="AD6" s="3"/>
       <c r="AE6" s="3"/>
     </row>
-    <row r="7" ht="30.0" customHeight="1">
+    <row r="7" spans="1:31" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1"/>
       <c r="B7" s="16"/>
       <c r="C7" s="17" t="s">
@@ -1176,19 +1571,19 @@
         <v>25</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>8</v>
+        <v>68</v>
       </c>
       <c r="F7" s="17">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="G7" s="15">
-        <v>45263.0</v>
+        <v>45263</v>
       </c>
       <c r="H7" s="18">
-        <v>45265.0</v>
+        <v>45265</v>
       </c>
       <c r="I7" s="17">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="J7" s="17" t="s">
         <v>23</v>
@@ -1217,7 +1612,7 @@
       <c r="AD7" s="3"/>
       <c r="AE7" s="3"/>
     </row>
-    <row r="8" ht="30.0" customHeight="1">
+    <row r="8" spans="1:31" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1"/>
       <c r="B8" s="16"/>
       <c r="C8" s="17" t="s">
@@ -1226,26 +1621,26 @@
       <c r="D8" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="17" t="s">
-        <v>29</v>
+      <c r="E8" s="34" t="s">
+        <v>69</v>
       </c>
       <c r="F8" s="17">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="G8" s="15">
-        <v>45263.0</v>
+        <v>45263</v>
       </c>
       <c r="H8" s="18">
-        <v>45268.0</v>
+        <v>45268</v>
       </c>
       <c r="I8" s="17">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="J8" s="17" t="s">
         <v>23</v>
       </c>
       <c r="K8" s="17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
@@ -1268,35 +1663,35 @@
       <c r="AD8" s="3"/>
       <c r="AE8" s="3"/>
     </row>
-    <row r="9" ht="30.0" customHeight="1">
+    <row r="9" spans="1:31" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1"/>
       <c r="B9" s="16"/>
       <c r="C9" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="17" t="s">
-        <v>32</v>
-      </c>
       <c r="E9" s="17" t="s">
-        <v>33</v>
+        <v>70</v>
       </c>
       <c r="F9" s="17">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="G9" s="15">
-        <v>45263.0</v>
+        <v>45263</v>
       </c>
       <c r="H9" s="18">
-        <v>45270.0</v>
+        <v>45270</v>
       </c>
       <c r="I9" s="17">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="J9" s="17" t="s">
         <v>23</v>
       </c>
       <c r="K9" s="19" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
@@ -1319,35 +1714,35 @@
       <c r="AD9" s="3"/>
       <c r="AE9" s="3"/>
     </row>
-    <row r="10" ht="30.0" customHeight="1">
+    <row r="10" spans="1:31" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1"/>
       <c r="B10" s="17"/>
       <c r="C10" s="17" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="E10" s="17" t="s">
-        <v>37</v>
+        <v>34</v>
+      </c>
+      <c r="E10" s="34" t="s">
+        <v>69</v>
       </c>
       <c r="F10" s="17">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="G10" s="15">
-        <v>45263.0</v>
+        <v>45263</v>
       </c>
       <c r="H10" s="18">
-        <v>45272.0</v>
+        <v>45272</v>
       </c>
       <c r="I10" s="17">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="J10" s="17" t="s">
         <v>23</v>
       </c>
       <c r="K10" s="19" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="L10" s="17"/>
       <c r="M10" s="3"/>
@@ -1370,25 +1765,25 @@
       <c r="AD10" s="3"/>
       <c r="AE10" s="3"/>
     </row>
-    <row r="11" ht="30.0" customHeight="1">
+    <row r="11" spans="1:31" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1"/>
       <c r="B11" s="20"/>
       <c r="C11" s="20" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20" t="s">
-        <v>40</v>
+        <v>71</v>
       </c>
       <c r="F11" s="20"/>
       <c r="G11" s="21">
-        <v>45274.0</v>
+        <v>45274</v>
       </c>
       <c r="H11" s="22">
-        <v>45280.0</v>
+        <v>45280</v>
       </c>
       <c r="I11" s="20">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="J11" s="14" t="s">
         <v>23</v>
@@ -1415,35 +1810,35 @@
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
     </row>
-    <row r="12" ht="30.0" customHeight="1">
+    <row r="12" spans="1:31" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1"/>
       <c r="B12" s="16"/>
       <c r="C12" s="23" t="s">
         <v>24</v>
       </c>
       <c r="D12" s="23" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E12" s="23" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="F12" s="23">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="G12" s="21">
-        <v>45274.0</v>
+        <v>45274</v>
       </c>
       <c r="H12" s="22">
-        <v>45280.0</v>
+        <v>45280</v>
       </c>
       <c r="I12" s="23">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="J12" s="14" t="s">
         <v>23</v>
       </c>
       <c r="K12" s="23" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
@@ -1466,35 +1861,35 @@
       <c r="AD12" s="3"/>
       <c r="AE12" s="3"/>
     </row>
-    <row r="13" ht="30.0" customHeight="1">
+    <row r="13" spans="1:31" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1"/>
       <c r="B13" s="16"/>
       <c r="C13" s="23" t="s">
         <v>27</v>
       </c>
       <c r="D13" s="23" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E13" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="23">
         <v>8</v>
       </c>
-      <c r="F13" s="23">
-        <v>8.0</v>
-      </c>
       <c r="G13" s="21">
-        <v>45274.0</v>
+        <v>45274</v>
       </c>
       <c r="H13" s="22">
-        <v>45278.0</v>
+        <v>45278</v>
       </c>
       <c r="I13" s="23">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="J13" s="14" t="s">
         <v>23</v>
       </c>
       <c r="K13" s="23" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
@@ -1517,35 +1912,35 @@
       <c r="AD13" s="3"/>
       <c r="AE13" s="3"/>
     </row>
-    <row r="14" ht="30.0" customHeight="1">
+    <row r="14" spans="1:31" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1"/>
       <c r="B14" s="16"/>
       <c r="C14" s="23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D14" s="23" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E14" s="17" t="s">
-        <v>29</v>
+        <v>72</v>
       </c>
       <c r="F14" s="23">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="G14" s="21">
-        <v>45274.0</v>
+        <v>45274</v>
       </c>
       <c r="H14" s="22">
-        <v>45280.0</v>
+        <v>45280</v>
       </c>
       <c r="I14" s="23">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="J14" s="14" t="s">
         <v>23</v>
       </c>
       <c r="K14" s="23" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
@@ -1568,25 +1963,25 @@
       <c r="AD14" s="3"/>
       <c r="AE14" s="3"/>
     </row>
-    <row r="15" ht="30.0" customHeight="1">
+    <row r="15" spans="1:31" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1"/>
       <c r="B15" s="16"/>
       <c r="C15" s="24" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D15" s="24"/>
-      <c r="E15" s="24" t="s">
-        <v>8</v>
+      <c r="E15" s="35" t="s">
+        <v>69</v>
       </c>
       <c r="F15" s="24"/>
       <c r="G15" s="25">
-        <v>45281.0</v>
+        <v>45281</v>
       </c>
       <c r="H15" s="22">
-        <v>45299.0</v>
+        <v>45299</v>
       </c>
       <c r="I15" s="24">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="J15" s="14" t="s">
         <v>23</v>
@@ -1613,35 +2008,35 @@
       <c r="AD15" s="3"/>
       <c r="AE15" s="3"/>
     </row>
-    <row r="16" ht="30.0" customHeight="1">
+    <row r="16" spans="1:31" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1"/>
       <c r="B16" s="16"/>
       <c r="C16" s="23" t="s">
         <v>24</v>
       </c>
       <c r="D16" s="23" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E16" s="23" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="F16" s="23">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="G16" s="25">
-        <v>45281.0</v>
+        <v>45281</v>
       </c>
       <c r="H16" s="22">
-        <v>45292.0</v>
+        <v>45292</v>
       </c>
       <c r="I16" s="23">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="J16" s="14" t="s">
         <v>23</v>
       </c>
       <c r="K16" s="23" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
@@ -1664,35 +2059,35 @@
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
     </row>
-    <row r="17" ht="30.0" customHeight="1">
+    <row r="17" spans="1:31" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1"/>
       <c r="B17" s="16"/>
       <c r="C17" s="23" t="s">
         <v>27</v>
       </c>
       <c r="D17" s="23" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E17" s="17" t="s">
-        <v>33</v>
+        <v>71</v>
       </c>
       <c r="F17" s="23">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="G17" s="25">
-        <v>45285.0</v>
+        <v>45285</v>
       </c>
       <c r="H17" s="22">
-        <v>45296.0</v>
+        <v>45296</v>
       </c>
       <c r="I17" s="23">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="J17" s="14" t="s">
         <v>23</v>
       </c>
       <c r="K17" s="23" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
@@ -1715,35 +2110,35 @@
       <c r="AD17" s="3"/>
       <c r="AE17" s="3"/>
     </row>
-    <row r="18" ht="30.0" customHeight="1">
+    <row r="18" spans="1:31" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="1"/>
       <c r="B18" s="16"/>
       <c r="C18" s="23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D18" s="23" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E18" s="17" t="s">
-        <v>29</v>
+        <v>72</v>
       </c>
       <c r="F18" s="23">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="G18" s="25">
-        <v>45296.0</v>
+        <v>45296</v>
       </c>
       <c r="H18" s="22">
-        <v>45299.0</v>
+        <v>45299</v>
       </c>
       <c r="I18" s="23">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="J18" s="14" t="s">
         <v>23</v>
       </c>
       <c r="K18" s="23" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
@@ -1766,25 +2161,25 @@
       <c r="AD18" s="3"/>
       <c r="AE18" s="3"/>
     </row>
-    <row r="19" ht="30.0" customHeight="1">
+    <row r="19" spans="1:31" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="1"/>
       <c r="B19" s="16"/>
       <c r="C19" s="24" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D19" s="24"/>
       <c r="E19" s="24" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="F19" s="24"/>
       <c r="G19" s="25">
-        <v>45300.0</v>
+        <v>45300</v>
       </c>
       <c r="H19" s="22">
-        <v>45303.0</v>
+        <v>45303</v>
       </c>
       <c r="I19" s="24">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="J19" s="14" t="s">
         <v>23</v>
@@ -1811,35 +2206,35 @@
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
     </row>
-    <row r="20" ht="30.0" customHeight="1">
+    <row r="20" spans="1:31" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="1"/>
       <c r="B20" s="16"/>
       <c r="C20" s="23" t="s">
         <v>24</v>
       </c>
       <c r="D20" s="23" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="E20" s="17" t="s">
-        <v>29</v>
+        <v>73</v>
       </c>
       <c r="F20" s="23">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="G20" s="25">
-        <v>45300.0</v>
+        <v>45300</v>
       </c>
       <c r="H20" s="22">
-        <v>45302.0</v>
+        <v>45302</v>
       </c>
       <c r="I20" s="23">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="J20" s="14" t="s">
         <v>23</v>
       </c>
       <c r="K20" s="23" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="L20" s="3"/>
       <c r="M20" s="3"/>
@@ -1862,35 +2257,35 @@
       <c r="AD20" s="3"/>
       <c r="AE20" s="3"/>
     </row>
-    <row r="21" ht="30.0" customHeight="1">
+    <row r="21" spans="1:31" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1"/>
       <c r="B21" s="16"/>
       <c r="C21" s="23" t="s">
         <v>27</v>
       </c>
       <c r="D21" s="23" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="E21" s="17" t="s">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="F21" s="23">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="G21" s="25">
-        <v>45300.0</v>
+        <v>45300</v>
       </c>
       <c r="H21" s="22">
-        <v>45301.0</v>
+        <v>45301</v>
       </c>
       <c r="I21" s="23">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J21" s="14" t="s">
         <v>23</v>
       </c>
       <c r="K21" s="23" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
@@ -1913,35 +2308,35 @@
       <c r="AD21" s="3"/>
       <c r="AE21" s="3"/>
     </row>
-    <row r="22" ht="30.0" customHeight="1">
+    <row r="22" spans="1:31" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="1"/>
       <c r="B22" s="16"/>
       <c r="C22" s="23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D22" s="23" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E22" s="23" t="s">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="F22" s="23">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="G22" s="25">
-        <v>45301.0</v>
+        <v>45301</v>
       </c>
       <c r="H22" s="22">
-        <v>45627.0</v>
+        <v>45627</v>
       </c>
       <c r="I22" s="23">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="J22" s="14" t="s">
         <v>23</v>
       </c>
       <c r="K22" s="23" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="L22" s="3"/>
       <c r="M22" s="3"/>
@@ -1964,25 +2359,25 @@
       <c r="AD22" s="3"/>
       <c r="AE22" s="3"/>
     </row>
-    <row r="23" ht="39.75" customHeight="1">
+    <row r="23" spans="1:31" ht="39.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="1"/>
       <c r="B23" s="24"/>
       <c r="C23" s="24" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D23" s="26"/>
       <c r="E23" s="26" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="F23" s="24"/>
       <c r="G23" s="25">
-        <v>45303.0</v>
+        <v>45303</v>
       </c>
       <c r="H23" s="22">
-        <v>45305.0</v>
+        <v>45305</v>
       </c>
       <c r="I23" s="24">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="J23" s="14" t="s">
         <v>23</v>
@@ -2009,35 +2404,35 @@
       <c r="AD23" s="3"/>
       <c r="AE23" s="3"/>
     </row>
-    <row r="24" ht="38.25" customHeight="1">
+    <row r="24" spans="1:31" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="1"/>
       <c r="B24" s="16"/>
       <c r="C24" s="23" t="s">
         <v>24</v>
       </c>
       <c r="D24" s="27" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="E24" s="28" t="s">
-        <v>33</v>
+        <v>72</v>
       </c>
       <c r="F24" s="23">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="G24" s="25">
-        <v>45303.0</v>
+        <v>45303</v>
       </c>
       <c r="H24" s="22">
-        <v>45305.0</v>
+        <v>45305</v>
       </c>
       <c r="I24" s="23">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="J24" s="14" t="s">
         <v>23</v>
       </c>
       <c r="K24" s="23" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
@@ -2060,35 +2455,35 @@
       <c r="AD24" s="3"/>
       <c r="AE24" s="3"/>
     </row>
-    <row r="25" ht="39.0" customHeight="1">
+    <row r="25" spans="1:31" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="1"/>
       <c r="B25" s="16"/>
       <c r="C25" s="23" t="s">
         <v>27</v>
       </c>
       <c r="D25" s="29" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="E25" s="17" t="s">
-        <v>8</v>
+        <v>69</v>
       </c>
       <c r="F25" s="23">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G25" s="25">
-        <v>45303.0</v>
+        <v>45303</v>
       </c>
       <c r="H25" s="22">
-        <v>45305.0</v>
+        <v>45305</v>
       </c>
       <c r="I25" s="23">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="J25" s="14" t="s">
         <v>23</v>
       </c>
       <c r="K25" s="23" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
@@ -2111,25 +2506,25 @@
       <c r="AD25" s="1"/>
       <c r="AE25" s="1"/>
     </row>
-    <row r="26" ht="41.25" customHeight="1">
+    <row r="26" spans="1:31" ht="41.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="1"/>
       <c r="B26" s="24"/>
       <c r="C26" s="24" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="D26" s="26"/>
       <c r="E26" s="26" t="s">
-        <v>8</v>
+        <v>68</v>
       </c>
       <c r="F26" s="24"/>
       <c r="G26" s="25">
-        <v>45303.0</v>
+        <v>45303</v>
       </c>
       <c r="H26" s="22">
-        <v>45305.0</v>
+        <v>45305</v>
       </c>
       <c r="I26" s="24">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="J26" s="14" t="s">
         <v>23</v>
@@ -2146,35 +2541,35 @@
       <c r="T26" s="3"/>
       <c r="U26" s="3"/>
     </row>
-    <row r="27" ht="36.0" customHeight="1">
+    <row r="27" spans="1:31" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="1"/>
       <c r="B27" s="16"/>
       <c r="C27" s="23" t="s">
         <v>24</v>
       </c>
       <c r="D27" s="27" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="E27" s="28" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="F27" s="23">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="G27" s="25">
-        <v>45306.0</v>
+        <v>45306</v>
       </c>
       <c r="H27" s="22">
-        <v>45325.0</v>
+        <v>45325</v>
       </c>
       <c r="I27" s="23">
-        <v>19.0</v>
+        <v>19</v>
       </c>
       <c r="J27" s="14" t="s">
         <v>23</v>
       </c>
       <c r="K27" s="23" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
@@ -2197,35 +2592,35 @@
       <c r="AD27" s="3"/>
       <c r="AE27" s="3"/>
     </row>
-    <row r="28" ht="36.0" customHeight="1">
+    <row r="28" spans="1:31" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="1"/>
       <c r="B28" s="16"/>
       <c r="C28" s="23" t="s">
         <v>27</v>
       </c>
       <c r="D28" s="29" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E28" s="17" t="s">
-        <v>8</v>
+        <v>71</v>
       </c>
       <c r="F28" s="23">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="G28" s="25">
-        <v>45306.0</v>
+        <v>45306</v>
       </c>
       <c r="H28" s="22">
-        <v>45323.0</v>
+        <v>45323</v>
       </c>
       <c r="I28" s="23">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="J28" s="14" t="s">
         <v>23</v>
       </c>
       <c r="K28" s="23" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="L28" s="3"/>
       <c r="M28" s="3"/>
@@ -2248,35 +2643,35 @@
       <c r="AD28" s="3"/>
       <c r="AE28" s="3"/>
     </row>
-    <row r="29" ht="33.0" customHeight="1">
+    <row r="29" spans="1:31" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="1"/>
       <c r="B29" s="16"/>
       <c r="C29" s="23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D29" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="E29" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="E29" s="17" t="s">
-        <v>8</v>
-      </c>
       <c r="F29" s="23">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="G29" s="25">
-        <v>45325.0</v>
+        <v>45325</v>
       </c>
       <c r="H29" s="22">
-        <v>45327.0</v>
+        <v>45327</v>
       </c>
       <c r="I29" s="23">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="J29" s="14" t="s">
         <v>23</v>
       </c>
       <c r="K29" s="23" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="L29" s="3"/>
       <c r="M29" s="3"/>
@@ -2299,7 +2694,7 @@
       <c r="AD29" s="3"/>
       <c r="AE29" s="3"/>
     </row>
-    <row r="30" ht="12.75" customHeight="1">
+    <row r="30" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="1"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -2332,7 +2727,7 @@
       <c r="AD30" s="3"/>
       <c r="AE30" s="3"/>
     </row>
-    <row r="31" ht="12.75" customHeight="1">
+    <row r="31" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="3"/>
@@ -2365,7 +2760,7 @@
       <c r="AD31" s="3"/>
       <c r="AE31" s="3"/>
     </row>
-    <row r="32" ht="12.75" customHeight="1">
+    <row r="32" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="3"/>
@@ -2398,7 +2793,7 @@
       <c r="AD32" s="3"/>
       <c r="AE32" s="3"/>
     </row>
-    <row r="33" ht="12.75" customHeight="1">
+    <row r="33" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -2431,7 +2826,7 @@
       <c r="AD33" s="3"/>
       <c r="AE33" s="3"/>
     </row>
-    <row r="34" ht="12.75" customHeight="1">
+    <row r="34" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="3"/>
@@ -2464,7 +2859,7 @@
       <c r="AD34" s="3"/>
       <c r="AE34" s="3"/>
     </row>
-    <row r="35" ht="12.75" customHeight="1">
+    <row r="35" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="3"/>
@@ -2497,7 +2892,7 @@
       <c r="AD35" s="3"/>
       <c r="AE35" s="3"/>
     </row>
-    <row r="36" ht="12.75" customHeight="1">
+    <row r="36" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="30"/>
@@ -2530,7 +2925,7 @@
       <c r="AD36" s="3"/>
       <c r="AE36" s="3"/>
     </row>
-    <row r="37" ht="12.75" customHeight="1">
+    <row r="37" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="30"/>
@@ -2563,7 +2958,7 @@
       <c r="AD37" s="3"/>
       <c r="AE37" s="3"/>
     </row>
-    <row r="38" ht="12.75" customHeight="1">
+    <row r="38" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="30"/>
@@ -2596,7 +2991,7 @@
       <c r="AD38" s="3"/>
       <c r="AE38" s="3"/>
     </row>
-    <row r="39" ht="12.75" customHeight="1">
+    <row r="39" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="30"/>
@@ -2629,7 +3024,7 @@
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
     </row>
-    <row r="40" ht="12.75" customHeight="1">
+    <row r="40" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="30"/>
@@ -2662,7 +3057,7 @@
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
     </row>
-    <row r="41" ht="12.75" customHeight="1">
+    <row r="41" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="30"/>
@@ -2695,7 +3090,7 @@
       <c r="AD41" s="3"/>
       <c r="AE41" s="3"/>
     </row>
-    <row r="42" ht="12.75" customHeight="1">
+    <row r="42" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="30"/>
@@ -2728,7 +3123,7 @@
       <c r="AD42" s="3"/>
       <c r="AE42" s="3"/>
     </row>
-    <row r="43" ht="12.75" customHeight="1">
+    <row r="43" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="30"/>
@@ -2761,7 +3156,7 @@
       <c r="AD43" s="3"/>
       <c r="AE43" s="3"/>
     </row>
-    <row r="44" ht="12.75" customHeight="1">
+    <row r="44" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="3"/>
@@ -2794,7 +3189,7 @@
       <c r="AD44" s="3"/>
       <c r="AE44" s="3"/>
     </row>
-    <row r="45" ht="12.75" customHeight="1">
+    <row r="45" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="3"/>
@@ -2827,7 +3222,7 @@
       <c r="AD45" s="3"/>
       <c r="AE45" s="3"/>
     </row>
-    <row r="46" ht="12.75" customHeight="1">
+    <row r="46" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="3"/>
@@ -2860,7 +3255,7 @@
       <c r="AD46" s="3"/>
       <c r="AE46" s="3"/>
     </row>
-    <row r="47" ht="12.75" customHeight="1">
+    <row r="47" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="3"/>
@@ -2893,7 +3288,7 @@
       <c r="AD47" s="3"/>
       <c r="AE47" s="3"/>
     </row>
-    <row r="48" ht="9.75" customHeight="1">
+    <row r="48" spans="1:31" ht="9.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="3"/>
@@ -2926,7 +3321,7 @@
       <c r="AD48" s="1"/>
       <c r="AE48" s="1"/>
     </row>
-    <row r="49" ht="12.75" customHeight="1">
+    <row r="49" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="3"/>
@@ -2959,7 +3354,7 @@
       <c r="AD49" s="3"/>
       <c r="AE49" s="3"/>
     </row>
-    <row r="50" ht="12.75" customHeight="1">
+    <row r="50" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="3"/>
@@ -2992,7 +3387,7 @@
       <c r="AD50" s="3"/>
       <c r="AE50" s="3"/>
     </row>
-    <row r="51" ht="12.75" customHeight="1">
+    <row r="51" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="3"/>
@@ -3025,7 +3420,7 @@
       <c r="AD51" s="3"/>
       <c r="AE51" s="3"/>
     </row>
-    <row r="52" ht="12.75" customHeight="1">
+    <row r="52" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="3"/>
@@ -3058,7 +3453,7 @@
       <c r="AD52" s="3"/>
       <c r="AE52" s="3"/>
     </row>
-    <row r="53" ht="12.75" customHeight="1">
+    <row r="53" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="3"/>
@@ -3091,7 +3486,7 @@
       <c r="AD53" s="3"/>
       <c r="AE53" s="3"/>
     </row>
-    <row r="54" ht="12.75" customHeight="1">
+    <row r="54" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="3"/>
@@ -3124,7 +3519,7 @@
       <c r="AD54" s="3"/>
       <c r="AE54" s="3"/>
     </row>
-    <row r="55" ht="12.75" customHeight="1">
+    <row r="55" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="3"/>
@@ -3157,7 +3552,7 @@
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
     </row>
-    <row r="56" ht="12.75" customHeight="1">
+    <row r="56" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -3190,7 +3585,7 @@
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
     </row>
-    <row r="57" ht="12.75" customHeight="1">
+    <row r="57" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="3"/>
@@ -3223,7 +3618,7 @@
       <c r="AD57" s="3"/>
       <c r="AE57" s="3"/>
     </row>
-    <row r="58" ht="12.75" customHeight="1">
+    <row r="58" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="3"/>
@@ -3256,7 +3651,7 @@
       <c r="AD58" s="3"/>
       <c r="AE58" s="3"/>
     </row>
-    <row r="59" ht="12.75" customHeight="1">
+    <row r="59" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="3"/>
@@ -3289,7 +3684,7 @@
       <c r="AD59" s="3"/>
       <c r="AE59" s="3"/>
     </row>
-    <row r="60" ht="12.75" customHeight="1">
+    <row r="60" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="3"/>
@@ -3322,7 +3717,7 @@
       <c r="AD60" s="3"/>
       <c r="AE60" s="3"/>
     </row>
-    <row r="61" ht="12.75" customHeight="1">
+    <row r="61" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="3"/>
@@ -3355,7 +3750,7 @@
       <c r="AD61" s="3"/>
       <c r="AE61" s="3"/>
     </row>
-    <row r="62" ht="12.75" customHeight="1">
+    <row r="62" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="3"/>
@@ -3388,7 +3783,7 @@
       <c r="AD62" s="3"/>
       <c r="AE62" s="3"/>
     </row>
-    <row r="63" ht="12.75" customHeight="1">
+    <row r="63" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="3"/>
@@ -3421,7 +3816,7 @@
       <c r="AD63" s="3"/>
       <c r="AE63" s="3"/>
     </row>
-    <row r="64" ht="12.75" customHeight="1">
+    <row r="64" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="3"/>
@@ -3454,7 +3849,7 @@
       <c r="AD64" s="3"/>
       <c r="AE64" s="3"/>
     </row>
-    <row r="65" ht="12.75" customHeight="1">
+    <row r="65" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="3"/>
@@ -3487,7 +3882,7 @@
       <c r="AD65" s="3"/>
       <c r="AE65" s="3"/>
     </row>
-    <row r="66" ht="12.75" customHeight="1">
+    <row r="66" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="3"/>
@@ -3520,7 +3915,7 @@
       <c r="AD66" s="3"/>
       <c r="AE66" s="3"/>
     </row>
-    <row r="67" ht="12.75" customHeight="1">
+    <row r="67" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="3"/>
@@ -3553,7 +3948,7 @@
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
     </row>
-    <row r="68" ht="12.75" customHeight="1">
+    <row r="68" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="3"/>
@@ -3586,7 +3981,7 @@
       <c r="AD68" s="3"/>
       <c r="AE68" s="3"/>
     </row>
-    <row r="69" ht="12.75" customHeight="1">
+    <row r="69" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="3"/>
@@ -3619,7 +4014,7 @@
       <c r="AD69" s="3"/>
       <c r="AE69" s="3"/>
     </row>
-    <row r="70" ht="12.75" customHeight="1">
+    <row r="70" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="3"/>
@@ -3652,7 +4047,7 @@
       <c r="AD70" s="3"/>
       <c r="AE70" s="3"/>
     </row>
-    <row r="71" ht="12.75" customHeight="1">
+    <row r="71" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="3"/>
@@ -3685,7 +4080,7 @@
       <c r="AD71" s="3"/>
       <c r="AE71" s="3"/>
     </row>
-    <row r="72" ht="12.75" customHeight="1">
+    <row r="72" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="3"/>
@@ -3718,7 +4113,7 @@
       <c r="AD72" s="3"/>
       <c r="AE72" s="3"/>
     </row>
-    <row r="73" ht="12.75" customHeight="1">
+    <row r="73" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="3"/>
@@ -3751,7 +4146,7 @@
       <c r="AD73" s="3"/>
       <c r="AE73" s="3"/>
     </row>
-    <row r="74" ht="12.75" customHeight="1">
+    <row r="74" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="3"/>
@@ -3784,7 +4179,7 @@
       <c r="AD74" s="3"/>
       <c r="AE74" s="3"/>
     </row>
-    <row r="75" ht="12.75" customHeight="1">
+    <row r="75" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="3"/>
@@ -3817,7 +4212,7 @@
       <c r="AD75" s="3"/>
       <c r="AE75" s="3"/>
     </row>
-    <row r="76" ht="12.75" customHeight="1">
+    <row r="76" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="3"/>
@@ -3850,7 +4245,7 @@
       <c r="AD76" s="3"/>
       <c r="AE76" s="3"/>
     </row>
-    <row r="77" ht="12.75" customHeight="1">
+    <row r="77" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="3"/>
@@ -3883,7 +4278,7 @@
       <c r="AD77" s="3"/>
       <c r="AE77" s="3"/>
     </row>
-    <row r="78" ht="12.75" customHeight="1">
+    <row r="78" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="3"/>
@@ -3916,7 +4311,7 @@
       <c r="AD78" s="3"/>
       <c r="AE78" s="3"/>
     </row>
-    <row r="79" ht="12.75" customHeight="1">
+    <row r="79" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="3"/>
@@ -3949,7 +4344,7 @@
       <c r="AD79" s="3"/>
       <c r="AE79" s="3"/>
     </row>
-    <row r="80" ht="12.75" customHeight="1">
+    <row r="80" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="3"/>
@@ -3982,7 +4377,7 @@
       <c r="AD80" s="3"/>
       <c r="AE80" s="3"/>
     </row>
-    <row r="81" ht="12.75" customHeight="1">
+    <row r="81" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="3"/>
@@ -4015,7 +4410,7 @@
       <c r="AD81" s="3"/>
       <c r="AE81" s="3"/>
     </row>
-    <row r="82" ht="12.75" customHeight="1">
+    <row r="82" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="3"/>
@@ -4048,7 +4443,7 @@
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
     </row>
-    <row r="83" ht="12.75" customHeight="1">
+    <row r="83" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="3"/>
@@ -4081,7 +4476,7 @@
       <c r="AD83" s="3"/>
       <c r="AE83" s="3"/>
     </row>
-    <row r="84" ht="12.75" customHeight="1">
+    <row r="84" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="3"/>
@@ -4114,7 +4509,7 @@
       <c r="AD84" s="3"/>
       <c r="AE84" s="3"/>
     </row>
-    <row r="85" ht="12.75" customHeight="1">
+    <row r="85" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="3"/>
@@ -4147,7 +4542,7 @@
       <c r="AD85" s="3"/>
       <c r="AE85" s="3"/>
     </row>
-    <row r="86" ht="12.75" customHeight="1">
+    <row r="86" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="3"/>
@@ -4180,7 +4575,7 @@
       <c r="AD86" s="3"/>
       <c r="AE86" s="3"/>
     </row>
-    <row r="87" ht="12.75" customHeight="1">
+    <row r="87" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="3"/>
@@ -4213,7 +4608,7 @@
       <c r="AD87" s="3"/>
       <c r="AE87" s="3"/>
     </row>
-    <row r="88" ht="12.75" customHeight="1">
+    <row r="88" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="3"/>
@@ -4246,7 +4641,7 @@
       <c r="AD88" s="3"/>
       <c r="AE88" s="3"/>
     </row>
-    <row r="89" ht="12.75" customHeight="1">
+    <row r="89" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="3"/>
@@ -4279,7 +4674,7 @@
       <c r="AD89" s="3"/>
       <c r="AE89" s="3"/>
     </row>
-    <row r="90" ht="12.75" customHeight="1">
+    <row r="90" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="3"/>
@@ -4312,7 +4707,7 @@
       <c r="AD90" s="3"/>
       <c r="AE90" s="3"/>
     </row>
-    <row r="91" ht="12.75" customHeight="1">
+    <row r="91" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="3"/>
@@ -4345,7 +4740,7 @@
       <c r="AD91" s="3"/>
       <c r="AE91" s="3"/>
     </row>
-    <row r="92" ht="12.75" customHeight="1">
+    <row r="92" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="3"/>
@@ -4378,7 +4773,7 @@
       <c r="AD92" s="3"/>
       <c r="AE92" s="3"/>
     </row>
-    <row r="93" ht="12.75" customHeight="1">
+    <row r="93" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="3"/>
@@ -4411,7 +4806,7 @@
       <c r="AD93" s="3"/>
       <c r="AE93" s="3"/>
     </row>
-    <row r="94" ht="12.75" customHeight="1">
+    <row r="94" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="3"/>
@@ -4444,7 +4839,7 @@
       <c r="AD94" s="3"/>
       <c r="AE94" s="3"/>
     </row>
-    <row r="95" ht="12.75" customHeight="1">
+    <row r="95" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="3"/>
@@ -4477,7 +4872,7 @@
       <c r="AD95" s="3"/>
       <c r="AE95" s="3"/>
     </row>
-    <row r="96" ht="12.75" customHeight="1">
+    <row r="96" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="3"/>
@@ -4510,7 +4905,7 @@
       <c r="AD96" s="3"/>
       <c r="AE96" s="3"/>
     </row>
-    <row r="97" ht="12.75" customHeight="1">
+    <row r="97" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="3"/>
@@ -4543,7 +4938,7 @@
       <c r="AD97" s="3"/>
       <c r="AE97" s="3"/>
     </row>
-    <row r="98" ht="12.75" customHeight="1">
+    <row r="98" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="3"/>
@@ -4576,7 +4971,7 @@
       <c r="AD98" s="3"/>
       <c r="AE98" s="3"/>
     </row>
-    <row r="99" ht="12.75" customHeight="1">
+    <row r="99" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="3"/>
@@ -4609,7 +5004,7 @@
       <c r="AD99" s="3"/>
       <c r="AE99" s="3"/>
     </row>
-    <row r="100" ht="12.75" customHeight="1">
+    <row r="100" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="3"/>
@@ -4642,7 +5037,7 @@
       <c r="AD100" s="3"/>
       <c r="AE100" s="3"/>
     </row>
-    <row r="101" ht="12.75" customHeight="1">
+    <row r="101" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="3"/>
@@ -4675,7 +5070,7 @@
       <c r="AD101" s="3"/>
       <c r="AE101" s="3"/>
     </row>
-    <row r="102" ht="12.75" customHeight="1">
+    <row r="102" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="3"/>
@@ -4708,7 +5103,7 @@
       <c r="AD102" s="3"/>
       <c r="AE102" s="3"/>
     </row>
-    <row r="103" ht="12.75" customHeight="1">
+    <row r="103" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="3"/>
@@ -4741,7 +5136,7 @@
       <c r="AD103" s="3"/>
       <c r="AE103" s="3"/>
     </row>
-    <row r="104" ht="12.75" customHeight="1">
+    <row r="104" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="3"/>
@@ -4774,7 +5169,7 @@
       <c r="AD104" s="3"/>
       <c r="AE104" s="3"/>
     </row>
-    <row r="105" ht="12.75" customHeight="1">
+    <row r="105" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="3"/>
@@ -4807,7 +5202,7 @@
       <c r="AD105" s="3"/>
       <c r="AE105" s="3"/>
     </row>
-    <row r="106" ht="12.75" customHeight="1">
+    <row r="106" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="3"/>
@@ -4840,7 +5235,7 @@
       <c r="AD106" s="3"/>
       <c r="AE106" s="3"/>
     </row>
-    <row r="107" ht="12.75" customHeight="1">
+    <row r="107" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="3"/>
@@ -4873,7 +5268,7 @@
       <c r="AD107" s="3"/>
       <c r="AE107" s="3"/>
     </row>
-    <row r="108" ht="12.75" customHeight="1">
+    <row r="108" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="3"/>
@@ -4906,7 +5301,7 @@
       <c r="AD108" s="3"/>
       <c r="AE108" s="3"/>
     </row>
-    <row r="109" ht="12.75" customHeight="1">
+    <row r="109" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="3"/>
@@ -4939,7 +5334,7 @@
       <c r="AD109" s="3"/>
       <c r="AE109" s="3"/>
     </row>
-    <row r="110" ht="12.75" customHeight="1">
+    <row r="110" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="3"/>
@@ -4972,7 +5367,7 @@
       <c r="AD110" s="3"/>
       <c r="AE110" s="3"/>
     </row>
-    <row r="111" ht="12.75" customHeight="1">
+    <row r="111" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="3"/>
@@ -5005,7 +5400,7 @@
       <c r="AD111" s="3"/>
       <c r="AE111" s="3"/>
     </row>
-    <row r="112" ht="12.75" customHeight="1">
+    <row r="112" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="3"/>
@@ -5038,7 +5433,7 @@
       <c r="AD112" s="3"/>
       <c r="AE112" s="3"/>
     </row>
-    <row r="113" ht="12.75" customHeight="1">
+    <row r="113" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="3"/>
@@ -5071,7 +5466,7 @@
       <c r="AD113" s="3"/>
       <c r="AE113" s="3"/>
     </row>
-    <row r="114" ht="12.75" customHeight="1">
+    <row r="114" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="3"/>
@@ -5104,7 +5499,7 @@
       <c r="AD114" s="3"/>
       <c r="AE114" s="3"/>
     </row>
-    <row r="115" ht="12.75" customHeight="1">
+    <row r="115" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="3"/>
@@ -5137,7 +5532,7 @@
       <c r="AD115" s="3"/>
       <c r="AE115" s="3"/>
     </row>
-    <row r="116" ht="12.75" customHeight="1">
+    <row r="116" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="3"/>
@@ -5170,7 +5565,7 @@
       <c r="AD116" s="3"/>
       <c r="AE116" s="3"/>
     </row>
-    <row r="117" ht="12.75" customHeight="1">
+    <row r="117" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="3"/>
@@ -5203,7 +5598,7 @@
       <c r="AD117" s="3"/>
       <c r="AE117" s="3"/>
     </row>
-    <row r="118" ht="12.75" customHeight="1">
+    <row r="118" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="3"/>
@@ -5236,7 +5631,7 @@
       <c r="AD118" s="3"/>
       <c r="AE118" s="3"/>
     </row>
-    <row r="119" ht="12.75" customHeight="1">
+    <row r="119" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="3"/>
@@ -5269,7 +5664,7 @@
       <c r="AD119" s="3"/>
       <c r="AE119" s="3"/>
     </row>
-    <row r="120" ht="12.75" customHeight="1">
+    <row r="120" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="3"/>
@@ -5302,7 +5697,7 @@
       <c r="AD120" s="3"/>
       <c r="AE120" s="3"/>
     </row>
-    <row r="121" ht="12.75" customHeight="1">
+    <row r="121" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="3"/>
@@ -5335,7 +5730,7 @@
       <c r="AD121" s="3"/>
       <c r="AE121" s="3"/>
     </row>
-    <row r="122" ht="12.75" customHeight="1">
+    <row r="122" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="3"/>
@@ -5368,7 +5763,7 @@
       <c r="AD122" s="3"/>
       <c r="AE122" s="3"/>
     </row>
-    <row r="123" ht="12.75" customHeight="1">
+    <row r="123" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123" s="3"/>
@@ -5401,7 +5796,7 @@
       <c r="AD123" s="3"/>
       <c r="AE123" s="3"/>
     </row>
-    <row r="124" ht="12.75" customHeight="1">
+    <row r="124" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="C124" s="3"/>
@@ -5434,7 +5829,7 @@
       <c r="AD124" s="3"/>
       <c r="AE124" s="3"/>
     </row>
-    <row r="125" ht="12.75" customHeight="1">
+    <row r="125" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="C125" s="3"/>
@@ -5467,7 +5862,7 @@
       <c r="AD125" s="3"/>
       <c r="AE125" s="3"/>
     </row>
-    <row r="126" ht="12.75" customHeight="1">
+    <row r="126" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="3"/>
@@ -5500,7 +5895,7 @@
       <c r="AD126" s="3"/>
       <c r="AE126" s="3"/>
     </row>
-    <row r="127" ht="12.75" customHeight="1">
+    <row r="127" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127" s="3"/>
@@ -5533,7 +5928,7 @@
       <c r="AD127" s="3"/>
       <c r="AE127" s="3"/>
     </row>
-    <row r="128" ht="12.75" customHeight="1">
+    <row r="128" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="3"/>
@@ -5566,7 +5961,7 @@
       <c r="AD128" s="3"/>
       <c r="AE128" s="3"/>
     </row>
-    <row r="129" ht="12.75" customHeight="1">
+    <row r="129" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
       <c r="C129" s="3"/>
@@ -5599,7 +5994,7 @@
       <c r="AD129" s="3"/>
       <c r="AE129" s="3"/>
     </row>
-    <row r="130" ht="12.75" customHeight="1">
+    <row r="130" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
       <c r="C130" s="3"/>
@@ -5632,7 +6027,7 @@
       <c r="AD130" s="3"/>
       <c r="AE130" s="3"/>
     </row>
-    <row r="131" ht="12.75" customHeight="1">
+    <row r="131" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
       <c r="C131" s="3"/>
@@ -5665,7 +6060,7 @@
       <c r="AD131" s="3"/>
       <c r="AE131" s="3"/>
     </row>
-    <row r="132" ht="12.75" customHeight="1">
+    <row r="132" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
       <c r="C132" s="3"/>
@@ -5698,7 +6093,7 @@
       <c r="AD132" s="3"/>
       <c r="AE132" s="3"/>
     </row>
-    <row r="133" ht="12.75" customHeight="1">
+    <row r="133" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
       <c r="C133" s="3"/>
@@ -5731,7 +6126,7 @@
       <c r="AD133" s="3"/>
       <c r="AE133" s="3"/>
     </row>
-    <row r="134" ht="12.75" customHeight="1">
+    <row r="134" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
       <c r="C134" s="3"/>
@@ -5764,7 +6159,7 @@
       <c r="AD134" s="3"/>
       <c r="AE134" s="3"/>
     </row>
-    <row r="135" ht="12.75" customHeight="1">
+    <row r="135" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="3"/>
@@ -5797,7 +6192,7 @@
       <c r="AD135" s="3"/>
       <c r="AE135" s="3"/>
     </row>
-    <row r="136" ht="12.75" customHeight="1">
+    <row r="136" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="3"/>
@@ -5830,7 +6225,7 @@
       <c r="AD136" s="3"/>
       <c r="AE136" s="3"/>
     </row>
-    <row r="137" ht="12.75" customHeight="1">
+    <row r="137" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="3"/>
@@ -5863,7 +6258,7 @@
       <c r="AD137" s="3"/>
       <c r="AE137" s="3"/>
     </row>
-    <row r="138" ht="12.75" customHeight="1">
+    <row r="138" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
       <c r="C138" s="3"/>
@@ -5896,7 +6291,7 @@
       <c r="AD138" s="3"/>
       <c r="AE138" s="3"/>
     </row>
-    <row r="139" ht="12.75" customHeight="1">
+    <row r="139" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A139" s="1"/>
       <c r="B139" s="1"/>
       <c r="C139" s="3"/>
@@ -5929,7 +6324,7 @@
       <c r="AD139" s="3"/>
       <c r="AE139" s="3"/>
     </row>
-    <row r="140" ht="12.75" customHeight="1">
+    <row r="140" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A140" s="1"/>
       <c r="B140" s="1"/>
       <c r="C140" s="3"/>
@@ -5962,7 +6357,7 @@
       <c r="AD140" s="3"/>
       <c r="AE140" s="3"/>
     </row>
-    <row r="141" ht="12.75" customHeight="1">
+    <row r="141" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A141" s="1"/>
       <c r="B141" s="1"/>
       <c r="C141" s="3"/>
@@ -5995,7 +6390,7 @@
       <c r="AD141" s="3"/>
       <c r="AE141" s="3"/>
     </row>
-    <row r="142" ht="12.75" customHeight="1">
+    <row r="142" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A142" s="1"/>
       <c r="B142" s="1"/>
       <c r="C142" s="3"/>
@@ -6028,7 +6423,7 @@
       <c r="AD142" s="3"/>
       <c r="AE142" s="3"/>
     </row>
-    <row r="143" ht="12.75" customHeight="1">
+    <row r="143" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
       <c r="C143" s="3"/>
@@ -6061,7 +6456,7 @@
       <c r="AD143" s="3"/>
       <c r="AE143" s="3"/>
     </row>
-    <row r="144" ht="12.75" customHeight="1">
+    <row r="144" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="3"/>
@@ -6094,7 +6489,7 @@
       <c r="AD144" s="3"/>
       <c r="AE144" s="3"/>
     </row>
-    <row r="145" ht="12.75" customHeight="1">
+    <row r="145" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A145" s="1"/>
       <c r="B145" s="1"/>
       <c r="C145" s="3"/>
@@ -6127,7 +6522,7 @@
       <c r="AD145" s="3"/>
       <c r="AE145" s="3"/>
     </row>
-    <row r="146" ht="12.75" customHeight="1">
+    <row r="146" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A146" s="1"/>
       <c r="B146" s="1"/>
       <c r="C146" s="3"/>
@@ -6160,7 +6555,7 @@
       <c r="AD146" s="3"/>
       <c r="AE146" s="3"/>
     </row>
-    <row r="147" ht="12.75" customHeight="1">
+    <row r="147" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A147" s="1"/>
       <c r="B147" s="1"/>
       <c r="C147" s="3"/>
@@ -6193,7 +6588,7 @@
       <c r="AD147" s="3"/>
       <c r="AE147" s="3"/>
     </row>
-    <row r="148" ht="12.75" customHeight="1">
+    <row r="148" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A148" s="1"/>
       <c r="B148" s="1"/>
       <c r="C148" s="3"/>
@@ -6226,7 +6621,7 @@
       <c r="AD148" s="3"/>
       <c r="AE148" s="3"/>
     </row>
-    <row r="149" ht="12.75" customHeight="1">
+    <row r="149" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A149" s="1"/>
       <c r="B149" s="1"/>
       <c r="C149" s="3"/>
@@ -6259,7 +6654,7 @@
       <c r="AD149" s="3"/>
       <c r="AE149" s="3"/>
     </row>
-    <row r="150" ht="12.75" customHeight="1">
+    <row r="150" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A150" s="1"/>
       <c r="B150" s="1"/>
       <c r="C150" s="3"/>
@@ -6292,7 +6687,7 @@
       <c r="AD150" s="3"/>
       <c r="AE150" s="3"/>
     </row>
-    <row r="151" ht="12.75" customHeight="1">
+    <row r="151" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A151" s="1"/>
       <c r="B151" s="1"/>
       <c r="C151" s="3"/>
@@ -6325,7 +6720,7 @@
       <c r="AD151" s="3"/>
       <c r="AE151" s="3"/>
     </row>
-    <row r="152" ht="12.75" customHeight="1">
+    <row r="152" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A152" s="1"/>
       <c r="B152" s="1"/>
       <c r="C152" s="3"/>
@@ -6358,7 +6753,7 @@
       <c r="AD152" s="3"/>
       <c r="AE152" s="3"/>
     </row>
-    <row r="153" ht="12.75" customHeight="1">
+    <row r="153" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A153" s="1"/>
       <c r="B153" s="1"/>
       <c r="C153" s="3"/>
@@ -6391,7 +6786,7 @@
       <c r="AD153" s="3"/>
       <c r="AE153" s="3"/>
     </row>
-    <row r="154" ht="12.75" customHeight="1">
+    <row r="154" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A154" s="1"/>
       <c r="B154" s="1"/>
       <c r="C154" s="3"/>
@@ -6424,7 +6819,7 @@
       <c r="AD154" s="3"/>
       <c r="AE154" s="3"/>
     </row>
-    <row r="155" ht="12.75" customHeight="1">
+    <row r="155" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A155" s="1"/>
       <c r="B155" s="1"/>
       <c r="C155" s="3"/>
@@ -6457,7 +6852,7 @@
       <c r="AD155" s="3"/>
       <c r="AE155" s="3"/>
     </row>
-    <row r="156" ht="12.75" customHeight="1">
+    <row r="156" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A156" s="1"/>
       <c r="B156" s="1"/>
       <c r="C156" s="3"/>
@@ -6490,7 +6885,7 @@
       <c r="AD156" s="3"/>
       <c r="AE156" s="3"/>
     </row>
-    <row r="157" ht="12.75" customHeight="1">
+    <row r="157" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A157" s="1"/>
       <c r="B157" s="1"/>
       <c r="C157" s="3"/>
@@ -6523,7 +6918,7 @@
       <c r="AD157" s="3"/>
       <c r="AE157" s="3"/>
     </row>
-    <row r="158" ht="12.75" customHeight="1">
+    <row r="158" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A158" s="1"/>
       <c r="B158" s="1"/>
       <c r="C158" s="3"/>
@@ -6556,7 +6951,7 @@
       <c r="AD158" s="3"/>
       <c r="AE158" s="3"/>
     </row>
-    <row r="159" ht="12.75" customHeight="1">
+    <row r="159" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A159" s="1"/>
       <c r="B159" s="1"/>
       <c r="C159" s="3"/>
@@ -6589,7 +6984,7 @@
       <c r="AD159" s="3"/>
       <c r="AE159" s="3"/>
     </row>
-    <row r="160" ht="12.75" customHeight="1">
+    <row r="160" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A160" s="1"/>
       <c r="B160" s="1"/>
       <c r="C160" s="3"/>
@@ -6622,7 +7017,7 @@
       <c r="AD160" s="3"/>
       <c r="AE160" s="3"/>
     </row>
-    <row r="161" ht="12.75" customHeight="1">
+    <row r="161" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A161" s="1"/>
       <c r="B161" s="1"/>
       <c r="C161" s="3"/>
@@ -6655,7 +7050,7 @@
       <c r="AD161" s="3"/>
       <c r="AE161" s="3"/>
     </row>
-    <row r="162" ht="12.75" customHeight="1">
+    <row r="162" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
       <c r="C162" s="3"/>
@@ -6688,7 +7083,7 @@
       <c r="AD162" s="3"/>
       <c r="AE162" s="3"/>
     </row>
-    <row r="163" ht="12.75" customHeight="1">
+    <row r="163" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A163" s="1"/>
       <c r="B163" s="1"/>
       <c r="C163" s="3"/>
@@ -6721,7 +7116,7 @@
       <c r="AD163" s="3"/>
       <c r="AE163" s="3"/>
     </row>
-    <row r="164" ht="12.75" customHeight="1">
+    <row r="164" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A164" s="1"/>
       <c r="B164" s="1"/>
       <c r="C164" s="3"/>
@@ -6754,7 +7149,7 @@
       <c r="AD164" s="3"/>
       <c r="AE164" s="3"/>
     </row>
-    <row r="165" ht="12.75" customHeight="1">
+    <row r="165" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A165" s="1"/>
       <c r="B165" s="1"/>
       <c r="C165" s="3"/>
@@ -6787,7 +7182,7 @@
       <c r="AD165" s="3"/>
       <c r="AE165" s="3"/>
     </row>
-    <row r="166" ht="12.75" customHeight="1">
+    <row r="166" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A166" s="1"/>
       <c r="B166" s="1"/>
       <c r="C166" s="3"/>
@@ -6820,7 +7215,7 @@
       <c r="AD166" s="3"/>
       <c r="AE166" s="3"/>
     </row>
-    <row r="167" ht="12.75" customHeight="1">
+    <row r="167" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A167" s="1"/>
       <c r="B167" s="1"/>
       <c r="C167" s="3"/>
@@ -6853,7 +7248,7 @@
       <c r="AD167" s="3"/>
       <c r="AE167" s="3"/>
     </row>
-    <row r="168" ht="12.75" customHeight="1">
+    <row r="168" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A168" s="1"/>
       <c r="B168" s="1"/>
       <c r="C168" s="3"/>
@@ -6886,7 +7281,7 @@
       <c r="AD168" s="3"/>
       <c r="AE168" s="3"/>
     </row>
-    <row r="169" ht="12.75" customHeight="1">
+    <row r="169" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A169" s="1"/>
       <c r="B169" s="1"/>
       <c r="C169" s="3"/>
@@ -6919,7 +7314,7 @@
       <c r="AD169" s="3"/>
       <c r="AE169" s="3"/>
     </row>
-    <row r="170" ht="12.75" customHeight="1">
+    <row r="170" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A170" s="1"/>
       <c r="B170" s="1"/>
       <c r="C170" s="3"/>
@@ -6952,7 +7347,7 @@
       <c r="AD170" s="3"/>
       <c r="AE170" s="3"/>
     </row>
-    <row r="171" ht="12.75" customHeight="1">
+    <row r="171" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A171" s="1"/>
       <c r="B171" s="1"/>
       <c r="C171" s="3"/>
@@ -6985,7 +7380,7 @@
       <c r="AD171" s="3"/>
       <c r="AE171" s="3"/>
     </row>
-    <row r="172" ht="12.75" customHeight="1">
+    <row r="172" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A172" s="1"/>
       <c r="B172" s="1"/>
       <c r="C172" s="3"/>
@@ -7018,7 +7413,7 @@
       <c r="AD172" s="3"/>
       <c r="AE172" s="3"/>
     </row>
-    <row r="173" ht="12.75" customHeight="1">
+    <row r="173" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A173" s="1"/>
       <c r="B173" s="1"/>
       <c r="C173" s="3"/>
@@ -7051,7 +7446,7 @@
       <c r="AD173" s="3"/>
       <c r="AE173" s="3"/>
     </row>
-    <row r="174" ht="12.75" customHeight="1">
+    <row r="174" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A174" s="1"/>
       <c r="B174" s="1"/>
       <c r="C174" s="3"/>
@@ -7084,7 +7479,7 @@
       <c r="AD174" s="3"/>
       <c r="AE174" s="3"/>
     </row>
-    <row r="175" ht="12.75" customHeight="1">
+    <row r="175" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A175" s="1"/>
       <c r="B175" s="1"/>
       <c r="C175" s="3"/>
@@ -7117,7 +7512,7 @@
       <c r="AD175" s="3"/>
       <c r="AE175" s="3"/>
     </row>
-    <row r="176" ht="12.75" customHeight="1">
+    <row r="176" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A176" s="1"/>
       <c r="B176" s="1"/>
       <c r="C176" s="3"/>
@@ -7150,7 +7545,7 @@
       <c r="AD176" s="3"/>
       <c r="AE176" s="3"/>
     </row>
-    <row r="177" ht="12.75" customHeight="1">
+    <row r="177" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A177" s="1"/>
       <c r="B177" s="1"/>
       <c r="C177" s="3"/>
@@ -7183,7 +7578,7 @@
       <c r="AD177" s="3"/>
       <c r="AE177" s="3"/>
     </row>
-    <row r="178" ht="12.75" customHeight="1">
+    <row r="178" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A178" s="1"/>
       <c r="B178" s="1"/>
       <c r="C178" s="3"/>
@@ -7216,7 +7611,7 @@
       <c r="AD178" s="3"/>
       <c r="AE178" s="3"/>
     </row>
-    <row r="179" ht="12.75" customHeight="1">
+    <row r="179" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A179" s="1"/>
       <c r="B179" s="1"/>
       <c r="C179" s="3"/>
@@ -7249,7 +7644,7 @@
       <c r="AD179" s="3"/>
       <c r="AE179" s="3"/>
     </row>
-    <row r="180" ht="12.75" customHeight="1">
+    <row r="180" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A180" s="1"/>
       <c r="B180" s="1"/>
       <c r="C180" s="3"/>
@@ -7282,7 +7677,7 @@
       <c r="AD180" s="3"/>
       <c r="AE180" s="3"/>
     </row>
-    <row r="181" ht="12.75" customHeight="1">
+    <row r="181" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A181" s="1"/>
       <c r="B181" s="1"/>
       <c r="C181" s="3"/>
@@ -7315,7 +7710,7 @@
       <c r="AD181" s="3"/>
       <c r="AE181" s="3"/>
     </row>
-    <row r="182" ht="12.75" customHeight="1">
+    <row r="182" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A182" s="1"/>
       <c r="B182" s="1"/>
       <c r="C182" s="3"/>
@@ -7348,7 +7743,7 @@
       <c r="AD182" s="3"/>
       <c r="AE182" s="3"/>
     </row>
-    <row r="183" ht="12.75" customHeight="1">
+    <row r="183" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A183" s="1"/>
       <c r="B183" s="1"/>
       <c r="C183" s="3"/>
@@ -7381,7 +7776,7 @@
       <c r="AD183" s="3"/>
       <c r="AE183" s="3"/>
     </row>
-    <row r="184" ht="12.75" customHeight="1">
+    <row r="184" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A184" s="1"/>
       <c r="B184" s="1"/>
       <c r="C184" s="3"/>
@@ -7414,7 +7809,7 @@
       <c r="AD184" s="3"/>
       <c r="AE184" s="3"/>
     </row>
-    <row r="185" ht="12.75" customHeight="1">
+    <row r="185" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A185" s="1"/>
       <c r="B185" s="1"/>
       <c r="C185" s="3"/>
@@ -7447,7 +7842,7 @@
       <c r="AD185" s="3"/>
       <c r="AE185" s="3"/>
     </row>
-    <row r="186" ht="12.75" customHeight="1">
+    <row r="186" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A186" s="1"/>
       <c r="B186" s="1"/>
       <c r="C186" s="3"/>
@@ -7480,7 +7875,7 @@
       <c r="AD186" s="3"/>
       <c r="AE186" s="3"/>
     </row>
-    <row r="187" ht="12.75" customHeight="1">
+    <row r="187" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A187" s="1"/>
       <c r="B187" s="1"/>
       <c r="C187" s="3"/>
@@ -7513,7 +7908,7 @@
       <c r="AD187" s="3"/>
       <c r="AE187" s="3"/>
     </row>
-    <row r="188" ht="12.75" customHeight="1">
+    <row r="188" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A188" s="1"/>
       <c r="B188" s="1"/>
       <c r="C188" s="3"/>
@@ -7546,7 +7941,7 @@
       <c r="AD188" s="3"/>
       <c r="AE188" s="3"/>
     </row>
-    <row r="189" ht="12.75" customHeight="1">
+    <row r="189" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A189" s="1"/>
       <c r="B189" s="1"/>
       <c r="C189" s="3"/>
@@ -7579,7 +7974,7 @@
       <c r="AD189" s="3"/>
       <c r="AE189" s="3"/>
     </row>
-    <row r="190" ht="12.75" customHeight="1">
+    <row r="190" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A190" s="1"/>
       <c r="B190" s="1"/>
       <c r="C190" s="3"/>
@@ -7612,7 +8007,7 @@
       <c r="AD190" s="3"/>
       <c r="AE190" s="3"/>
     </row>
-    <row r="191" ht="12.75" customHeight="1">
+    <row r="191" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A191" s="1"/>
       <c r="B191" s="1"/>
       <c r="C191" s="3"/>
@@ -7645,7 +8040,7 @@
       <c r="AD191" s="3"/>
       <c r="AE191" s="3"/>
     </row>
-    <row r="192" ht="12.75" customHeight="1">
+    <row r="192" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A192" s="1"/>
       <c r="B192" s="1"/>
       <c r="C192" s="3"/>
@@ -7678,7 +8073,7 @@
       <c r="AD192" s="3"/>
       <c r="AE192" s="3"/>
     </row>
-    <row r="193" ht="12.75" customHeight="1">
+    <row r="193" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A193" s="1"/>
       <c r="B193" s="1"/>
       <c r="C193" s="3"/>
@@ -7711,7 +8106,7 @@
       <c r="AD193" s="3"/>
       <c r="AE193" s="3"/>
     </row>
-    <row r="194" ht="12.75" customHeight="1">
+    <row r="194" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A194" s="1"/>
       <c r="B194" s="1"/>
       <c r="C194" s="3"/>
@@ -7744,7 +8139,7 @@
       <c r="AD194" s="3"/>
       <c r="AE194" s="3"/>
     </row>
-    <row r="195" ht="12.75" customHeight="1">
+    <row r="195" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A195" s="1"/>
       <c r="B195" s="1"/>
       <c r="C195" s="3"/>
@@ -7777,7 +8172,7 @@
       <c r="AD195" s="3"/>
       <c r="AE195" s="3"/>
     </row>
-    <row r="196" ht="12.75" customHeight="1">
+    <row r="196" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A196" s="1"/>
       <c r="B196" s="1"/>
       <c r="C196" s="3"/>
@@ -7810,7 +8205,7 @@
       <c r="AD196" s="3"/>
       <c r="AE196" s="3"/>
     </row>
-    <row r="197" ht="12.75" customHeight="1">
+    <row r="197" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A197" s="1"/>
       <c r="B197" s="1"/>
       <c r="C197" s="3"/>
@@ -7843,7 +8238,7 @@
       <c r="AD197" s="3"/>
       <c r="AE197" s="3"/>
     </row>
-    <row r="198" ht="12.75" customHeight="1">
+    <row r="198" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A198" s="1"/>
       <c r="B198" s="1"/>
       <c r="C198" s="3"/>
@@ -7876,7 +8271,7 @@
       <c r="AD198" s="3"/>
       <c r="AE198" s="3"/>
     </row>
-    <row r="199" ht="12.75" customHeight="1">
+    <row r="199" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A199" s="1"/>
       <c r="B199" s="1"/>
       <c r="C199" s="3"/>
@@ -7909,7 +8304,7 @@
       <c r="AD199" s="3"/>
       <c r="AE199" s="3"/>
     </row>
-    <row r="200" ht="12.75" customHeight="1">
+    <row r="200" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A200" s="1"/>
       <c r="B200" s="1"/>
       <c r="C200" s="3"/>
@@ -7942,7 +8337,7 @@
       <c r="AD200" s="3"/>
       <c r="AE200" s="3"/>
     </row>
-    <row r="201" ht="12.75" customHeight="1">
+    <row r="201" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A201" s="1"/>
       <c r="B201" s="1"/>
       <c r="C201" s="3"/>
@@ -7975,7 +8370,7 @@
       <c r="AD201" s="3"/>
       <c r="AE201" s="3"/>
     </row>
-    <row r="202" ht="12.75" customHeight="1">
+    <row r="202" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A202" s="1"/>
       <c r="B202" s="1"/>
       <c r="C202" s="3"/>
@@ -8008,7 +8403,7 @@
       <c r="AD202" s="3"/>
       <c r="AE202" s="3"/>
     </row>
-    <row r="203" ht="12.75" customHeight="1">
+    <row r="203" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A203" s="1"/>
       <c r="B203" s="1"/>
       <c r="C203" s="3"/>
@@ -8041,7 +8436,7 @@
       <c r="AD203" s="3"/>
       <c r="AE203" s="3"/>
     </row>
-    <row r="204" ht="12.75" customHeight="1">
+    <row r="204" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A204" s="1"/>
       <c r="B204" s="1"/>
       <c r="C204" s="3"/>
@@ -8074,7 +8469,7 @@
       <c r="AD204" s="3"/>
       <c r="AE204" s="3"/>
     </row>
-    <row r="205" ht="12.75" customHeight="1">
+    <row r="205" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A205" s="1"/>
       <c r="B205" s="1"/>
       <c r="C205" s="3"/>
@@ -8107,7 +8502,7 @@
       <c r="AD205" s="3"/>
       <c r="AE205" s="3"/>
     </row>
-    <row r="206" ht="12.75" customHeight="1">
+    <row r="206" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A206" s="1"/>
       <c r="B206" s="1"/>
       <c r="C206" s="3"/>
@@ -8140,7 +8535,7 @@
       <c r="AD206" s="3"/>
       <c r="AE206" s="3"/>
     </row>
-    <row r="207" ht="12.75" customHeight="1">
+    <row r="207" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A207" s="1"/>
       <c r="B207" s="1"/>
       <c r="C207" s="3"/>
@@ -8173,7 +8568,7 @@
       <c r="AD207" s="3"/>
       <c r="AE207" s="3"/>
     </row>
-    <row r="208" ht="12.75" customHeight="1">
+    <row r="208" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A208" s="1"/>
       <c r="B208" s="1"/>
       <c r="C208" s="3"/>
@@ -8206,7 +8601,7 @@
       <c r="AD208" s="3"/>
       <c r="AE208" s="3"/>
     </row>
-    <row r="209" ht="12.75" customHeight="1">
+    <row r="209" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A209" s="1"/>
       <c r="B209" s="1"/>
       <c r="C209" s="3"/>
@@ -8239,7 +8634,7 @@
       <c r="AD209" s="3"/>
       <c r="AE209" s="3"/>
     </row>
-    <row r="210" ht="12.75" customHeight="1">
+    <row r="210" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A210" s="1"/>
       <c r="B210" s="1"/>
       <c r="C210" s="3"/>
@@ -8272,7 +8667,7 @@
       <c r="AD210" s="3"/>
       <c r="AE210" s="3"/>
     </row>
-    <row r="211" ht="12.75" customHeight="1">
+    <row r="211" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A211" s="1"/>
       <c r="B211" s="1"/>
       <c r="C211" s="3"/>
@@ -8305,7 +8700,7 @@
       <c r="AD211" s="3"/>
       <c r="AE211" s="3"/>
     </row>
-    <row r="212" ht="12.75" customHeight="1">
+    <row r="212" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A212" s="1"/>
       <c r="B212" s="1"/>
       <c r="C212" s="3"/>
@@ -8338,7 +8733,7 @@
       <c r="AD212" s="3"/>
       <c r="AE212" s="3"/>
     </row>
-    <row r="213" ht="12.75" customHeight="1">
+    <row r="213" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A213" s="1"/>
       <c r="B213" s="1"/>
       <c r="C213" s="3"/>
@@ -8371,7 +8766,7 @@
       <c r="AD213" s="3"/>
       <c r="AE213" s="3"/>
     </row>
-    <row r="214" ht="12.75" customHeight="1">
+    <row r="214" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A214" s="1"/>
       <c r="B214" s="1"/>
       <c r="C214" s="3"/>
@@ -8404,7 +8799,7 @@
       <c r="AD214" s="3"/>
       <c r="AE214" s="3"/>
     </row>
-    <row r="215" ht="12.75" customHeight="1">
+    <row r="215" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A215" s="1"/>
       <c r="B215" s="1"/>
       <c r="C215" s="3"/>
@@ -8437,7 +8832,7 @@
       <c r="AD215" s="3"/>
       <c r="AE215" s="3"/>
     </row>
-    <row r="216" ht="12.75" customHeight="1">
+    <row r="216" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A216" s="1"/>
       <c r="B216" s="1"/>
       <c r="C216" s="3"/>
@@ -8470,7 +8865,7 @@
       <c r="AD216" s="3"/>
       <c r="AE216" s="3"/>
     </row>
-    <row r="217" ht="12.75" customHeight="1">
+    <row r="217" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A217" s="1"/>
       <c r="B217" s="1"/>
       <c r="C217" s="3"/>
@@ -8503,7 +8898,7 @@
       <c r="AD217" s="3"/>
       <c r="AE217" s="3"/>
     </row>
-    <row r="218" ht="12.75" customHeight="1">
+    <row r="218" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A218" s="1"/>
       <c r="B218" s="1"/>
       <c r="C218" s="3"/>
@@ -8536,7 +8931,7 @@
       <c r="AD218" s="3"/>
       <c r="AE218" s="3"/>
     </row>
-    <row r="219" ht="12.75" customHeight="1">
+    <row r="219" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A219" s="1"/>
       <c r="B219" s="1"/>
       <c r="C219" s="3"/>
@@ -8569,7 +8964,7 @@
       <c r="AD219" s="3"/>
       <c r="AE219" s="3"/>
     </row>
-    <row r="220" ht="12.75" customHeight="1">
+    <row r="220" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A220" s="1"/>
       <c r="B220" s="1"/>
       <c r="C220" s="3"/>
@@ -8602,7 +8997,7 @@
       <c r="AD220" s="3"/>
       <c r="AE220" s="3"/>
     </row>
-    <row r="221" ht="12.75" customHeight="1">
+    <row r="221" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A221" s="1"/>
       <c r="B221" s="1"/>
       <c r="C221" s="3"/>
@@ -8635,7 +9030,7 @@
       <c r="AD221" s="3"/>
       <c r="AE221" s="3"/>
     </row>
-    <row r="222" ht="12.75" customHeight="1">
+    <row r="222" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A222" s="1"/>
       <c r="B222" s="1"/>
       <c r="C222" s="3"/>
@@ -8668,7 +9063,7 @@
       <c r="AD222" s="3"/>
       <c r="AE222" s="3"/>
     </row>
-    <row r="223" ht="12.75" customHeight="1">
+    <row r="223" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A223" s="1"/>
       <c r="B223" s="1"/>
       <c r="C223" s="3"/>
@@ -8701,7 +9096,7 @@
       <c r="AD223" s="3"/>
       <c r="AE223" s="3"/>
     </row>
-    <row r="224" ht="12.75" customHeight="1">
+    <row r="224" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A224" s="1"/>
       <c r="B224" s="1"/>
       <c r="C224" s="3"/>
@@ -8734,7 +9129,7 @@
       <c r="AD224" s="3"/>
       <c r="AE224" s="3"/>
     </row>
-    <row r="225" ht="12.75" customHeight="1">
+    <row r="225" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A225" s="1"/>
       <c r="B225" s="1"/>
       <c r="C225" s="3"/>
@@ -8767,7 +9162,7 @@
       <c r="AD225" s="3"/>
       <c r="AE225" s="3"/>
     </row>
-    <row r="226" ht="15.75" customHeight="1">
+    <row r="226" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B226" s="1"/>
       <c r="C226" s="3"/>
       <c r="D226" s="3"/>
@@ -8779,7 +9174,7 @@
       <c r="J226" s="3"/>
       <c r="K226" s="3"/>
     </row>
-    <row r="227" ht="15.75" customHeight="1">
+    <row r="227" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B227" s="1"/>
       <c r="C227" s="3"/>
       <c r="D227" s="3"/>
@@ -8791,7 +9186,7 @@
       <c r="J227" s="3"/>
       <c r="K227" s="3"/>
     </row>
-    <row r="228" ht="15.75" customHeight="1">
+    <row r="228" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B228" s="1"/>
       <c r="C228" s="3"/>
       <c r="D228" s="3"/>
@@ -8803,7 +9198,7 @@
       <c r="J228" s="3"/>
       <c r="K228" s="3"/>
     </row>
-    <row r="229" ht="15.75" customHeight="1">
+    <row r="229" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B229" s="1"/>
       <c r="C229" s="3"/>
       <c r="D229" s="3"/>
@@ -8815,7 +9210,7 @@
       <c r="J229" s="3"/>
       <c r="K229" s="3"/>
     </row>
-    <row r="230" ht="15.75" customHeight="1">
+    <row r="230" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B230" s="1"/>
       <c r="C230" s="3"/>
       <c r="D230" s="3"/>
@@ -8827,7 +9222,7 @@
       <c r="J230" s="3"/>
       <c r="K230" s="3"/>
     </row>
-    <row r="231" ht="15.75" customHeight="1">
+    <row r="231" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B231" s="1"/>
       <c r="C231" s="3"/>
       <c r="D231" s="3"/>
@@ -8839,7 +9234,7 @@
       <c r="J231" s="3"/>
       <c r="K231" s="3"/>
     </row>
-    <row r="232" ht="15.75" customHeight="1">
+    <row r="232" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B232" s="1"/>
       <c r="C232" s="3"/>
       <c r="D232" s="3"/>
@@ -8851,7 +9246,7 @@
       <c r="J232" s="3"/>
       <c r="K232" s="3"/>
     </row>
-    <row r="233" ht="15.75" customHeight="1">
+    <row r="233" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B233" s="1"/>
       <c r="C233" s="3"/>
       <c r="D233" s="3"/>
@@ -8863,781 +9258,780 @@
       <c r="J233" s="3"/>
       <c r="K233" s="3"/>
     </row>
-    <row r="234" ht="15.75" customHeight="1"/>
-    <row r="235" ht="15.75" customHeight="1"/>
-    <row r="236" ht="15.75" customHeight="1"/>
-    <row r="237" ht="15.75" customHeight="1"/>
-    <row r="238" ht="15.75" customHeight="1"/>
-    <row r="239" ht="15.75" customHeight="1"/>
-    <row r="240" ht="15.75" customHeight="1"/>
-    <row r="241" ht="15.75" customHeight="1"/>
-    <row r="242" ht="15.75" customHeight="1"/>
-    <row r="243" ht="15.75" customHeight="1"/>
-    <row r="244" ht="15.75" customHeight="1"/>
-    <row r="245" ht="15.75" customHeight="1"/>
-    <row r="246" ht="15.75" customHeight="1"/>
-    <row r="247" ht="15.75" customHeight="1"/>
-    <row r="248" ht="15.75" customHeight="1"/>
-    <row r="249" ht="15.75" customHeight="1"/>
-    <row r="250" ht="15.75" customHeight="1"/>
-    <row r="251" ht="15.75" customHeight="1"/>
-    <row r="252" ht="15.75" customHeight="1"/>
-    <row r="253" ht="15.75" customHeight="1"/>
-    <row r="254" ht="15.75" customHeight="1"/>
-    <row r="255" ht="15.75" customHeight="1"/>
-    <row r="256" ht="15.75" customHeight="1"/>
-    <row r="257" ht="15.75" customHeight="1"/>
-    <row r="258" ht="15.75" customHeight="1"/>
-    <row r="259" ht="15.75" customHeight="1"/>
-    <row r="260" ht="15.75" customHeight="1"/>
-    <row r="261" ht="15.75" customHeight="1"/>
-    <row r="262" ht="15.75" customHeight="1"/>
-    <row r="263" ht="15.75" customHeight="1"/>
-    <row r="264" ht="15.75" customHeight="1"/>
-    <row r="265" ht="15.75" customHeight="1"/>
-    <row r="266" ht="15.75" customHeight="1"/>
-    <row r="267" ht="15.75" customHeight="1"/>
-    <row r="268" ht="15.75" customHeight="1"/>
-    <row r="269" ht="15.75" customHeight="1"/>
-    <row r="270" ht="15.75" customHeight="1"/>
-    <row r="271" ht="15.75" customHeight="1"/>
-    <row r="272" ht="15.75" customHeight="1"/>
-    <row r="273" ht="15.75" customHeight="1"/>
-    <row r="274" ht="15.75" customHeight="1"/>
-    <row r="275" ht="15.75" customHeight="1"/>
-    <row r="276" ht="15.75" customHeight="1"/>
-    <row r="277" ht="15.75" customHeight="1"/>
-    <row r="278" ht="15.75" customHeight="1"/>
-    <row r="279" ht="15.75" customHeight="1"/>
-    <row r="280" ht="15.75" customHeight="1"/>
-    <row r="281" ht="15.75" customHeight="1"/>
-    <row r="282" ht="15.75" customHeight="1"/>
-    <row r="283" ht="15.75" customHeight="1"/>
-    <row r="284" ht="15.75" customHeight="1"/>
-    <row r="285" ht="15.75" customHeight="1"/>
-    <row r="286" ht="15.75" customHeight="1"/>
-    <row r="287" ht="15.75" customHeight="1"/>
-    <row r="288" ht="15.75" customHeight="1"/>
-    <row r="289" ht="15.75" customHeight="1"/>
-    <row r="290" ht="15.75" customHeight="1"/>
-    <row r="291" ht="15.75" customHeight="1"/>
-    <row r="292" ht="15.75" customHeight="1"/>
-    <row r="293" ht="15.75" customHeight="1"/>
-    <row r="294" ht="15.75" customHeight="1"/>
-    <row r="295" ht="15.75" customHeight="1"/>
-    <row r="296" ht="15.75" customHeight="1"/>
-    <row r="297" ht="15.75" customHeight="1"/>
-    <row r="298" ht="15.75" customHeight="1"/>
-    <row r="299" ht="15.75" customHeight="1"/>
-    <row r="300" ht="15.75" customHeight="1"/>
-    <row r="301" ht="15.75" customHeight="1"/>
-    <row r="302" ht="15.75" customHeight="1"/>
-    <row r="303" ht="15.75" customHeight="1"/>
-    <row r="304" ht="15.75" customHeight="1"/>
-    <row r="305" ht="15.75" customHeight="1"/>
-    <row r="306" ht="15.75" customHeight="1"/>
-    <row r="307" ht="15.75" customHeight="1"/>
-    <row r="308" ht="15.75" customHeight="1"/>
-    <row r="309" ht="15.75" customHeight="1"/>
-    <row r="310" ht="15.75" customHeight="1"/>
-    <row r="311" ht="15.75" customHeight="1"/>
-    <row r="312" ht="15.75" customHeight="1"/>
-    <row r="313" ht="15.75" customHeight="1"/>
-    <row r="314" ht="15.75" customHeight="1"/>
-    <row r="315" ht="15.75" customHeight="1"/>
-    <row r="316" ht="15.75" customHeight="1"/>
-    <row r="317" ht="15.75" customHeight="1"/>
-    <row r="318" ht="15.75" customHeight="1"/>
-    <row r="319" ht="15.75" customHeight="1"/>
-    <row r="320" ht="15.75" customHeight="1"/>
-    <row r="321" ht="15.75" customHeight="1"/>
-    <row r="322" ht="15.75" customHeight="1"/>
-    <row r="323" ht="15.75" customHeight="1"/>
-    <row r="324" ht="15.75" customHeight="1"/>
-    <row r="325" ht="15.75" customHeight="1"/>
-    <row r="326" ht="15.75" customHeight="1"/>
-    <row r="327" ht="15.75" customHeight="1"/>
-    <row r="328" ht="15.75" customHeight="1"/>
-    <row r="329" ht="15.75" customHeight="1"/>
-    <row r="330" ht="15.75" customHeight="1"/>
-    <row r="331" ht="15.75" customHeight="1"/>
-    <row r="332" ht="15.75" customHeight="1"/>
-    <row r="333" ht="15.75" customHeight="1"/>
-    <row r="334" ht="15.75" customHeight="1"/>
-    <row r="335" ht="15.75" customHeight="1"/>
-    <row r="336" ht="15.75" customHeight="1"/>
-    <row r="337" ht="15.75" customHeight="1"/>
-    <row r="338" ht="15.75" customHeight="1"/>
-    <row r="339" ht="15.75" customHeight="1"/>
-    <row r="340" ht="15.75" customHeight="1"/>
-    <row r="341" ht="15.75" customHeight="1"/>
-    <row r="342" ht="15.75" customHeight="1"/>
-    <row r="343" ht="15.75" customHeight="1"/>
-    <row r="344" ht="15.75" customHeight="1"/>
-    <row r="345" ht="15.75" customHeight="1"/>
-    <row r="346" ht="15.75" customHeight="1"/>
-    <row r="347" ht="15.75" customHeight="1"/>
-    <row r="348" ht="15.75" customHeight="1"/>
-    <row r="349" ht="15.75" customHeight="1"/>
-    <row r="350" ht="15.75" customHeight="1"/>
-    <row r="351" ht="15.75" customHeight="1"/>
-    <row r="352" ht="15.75" customHeight="1"/>
-    <row r="353" ht="15.75" customHeight="1"/>
-    <row r="354" ht="15.75" customHeight="1"/>
-    <row r="355" ht="15.75" customHeight="1"/>
-    <row r="356" ht="15.75" customHeight="1"/>
-    <row r="357" ht="15.75" customHeight="1"/>
-    <row r="358" ht="15.75" customHeight="1"/>
-    <row r="359" ht="15.75" customHeight="1"/>
-    <row r="360" ht="15.75" customHeight="1"/>
-    <row r="361" ht="15.75" customHeight="1"/>
-    <row r="362" ht="15.75" customHeight="1"/>
-    <row r="363" ht="15.75" customHeight="1"/>
-    <row r="364" ht="15.75" customHeight="1"/>
-    <row r="365" ht="15.75" customHeight="1"/>
-    <row r="366" ht="15.75" customHeight="1"/>
-    <row r="367" ht="15.75" customHeight="1"/>
-    <row r="368" ht="15.75" customHeight="1"/>
-    <row r="369" ht="15.75" customHeight="1"/>
-    <row r="370" ht="15.75" customHeight="1"/>
-    <row r="371" ht="15.75" customHeight="1"/>
-    <row r="372" ht="15.75" customHeight="1"/>
-    <row r="373" ht="15.75" customHeight="1"/>
-    <row r="374" ht="15.75" customHeight="1"/>
-    <row r="375" ht="15.75" customHeight="1"/>
-    <row r="376" ht="15.75" customHeight="1"/>
-    <row r="377" ht="15.75" customHeight="1"/>
-    <row r="378" ht="15.75" customHeight="1"/>
-    <row r="379" ht="15.75" customHeight="1"/>
-    <row r="380" ht="15.75" customHeight="1"/>
-    <row r="381" ht="15.75" customHeight="1"/>
-    <row r="382" ht="15.75" customHeight="1"/>
-    <row r="383" ht="15.75" customHeight="1"/>
-    <row r="384" ht="15.75" customHeight="1"/>
-    <row r="385" ht="15.75" customHeight="1"/>
-    <row r="386" ht="15.75" customHeight="1"/>
-    <row r="387" ht="15.75" customHeight="1"/>
-    <row r="388" ht="15.75" customHeight="1"/>
-    <row r="389" ht="15.75" customHeight="1"/>
-    <row r="390" ht="15.75" customHeight="1"/>
-    <row r="391" ht="15.75" customHeight="1"/>
-    <row r="392" ht="15.75" customHeight="1"/>
-    <row r="393" ht="15.75" customHeight="1"/>
-    <row r="394" ht="15.75" customHeight="1"/>
-    <row r="395" ht="15.75" customHeight="1"/>
-    <row r="396" ht="15.75" customHeight="1"/>
-    <row r="397" ht="15.75" customHeight="1"/>
-    <row r="398" ht="15.75" customHeight="1"/>
-    <row r="399" ht="15.75" customHeight="1"/>
-    <row r="400" ht="15.75" customHeight="1"/>
-    <row r="401" ht="15.75" customHeight="1"/>
-    <row r="402" ht="15.75" customHeight="1"/>
-    <row r="403" ht="15.75" customHeight="1"/>
-    <row r="404" ht="15.75" customHeight="1"/>
-    <row r="405" ht="15.75" customHeight="1"/>
-    <row r="406" ht="15.75" customHeight="1"/>
-    <row r="407" ht="15.75" customHeight="1"/>
-    <row r="408" ht="15.75" customHeight="1"/>
-    <row r="409" ht="15.75" customHeight="1"/>
-    <row r="410" ht="15.75" customHeight="1"/>
-    <row r="411" ht="15.75" customHeight="1"/>
-    <row r="412" ht="15.75" customHeight="1"/>
-    <row r="413" ht="15.75" customHeight="1"/>
-    <row r="414" ht="15.75" customHeight="1"/>
-    <row r="415" ht="15.75" customHeight="1"/>
-    <row r="416" ht="15.75" customHeight="1"/>
-    <row r="417" ht="15.75" customHeight="1"/>
-    <row r="418" ht="15.75" customHeight="1"/>
-    <row r="419" ht="15.75" customHeight="1"/>
-    <row r="420" ht="15.75" customHeight="1"/>
-    <row r="421" ht="15.75" customHeight="1"/>
-    <row r="422" ht="15.75" customHeight="1"/>
-    <row r="423" ht="15.75" customHeight="1"/>
-    <row r="424" ht="15.75" customHeight="1"/>
-    <row r="425" ht="15.75" customHeight="1"/>
-    <row r="426" ht="15.75" customHeight="1"/>
-    <row r="427" ht="15.75" customHeight="1"/>
-    <row r="428" ht="15.75" customHeight="1"/>
-    <row r="429" ht="15.75" customHeight="1"/>
-    <row r="430" ht="15.75" customHeight="1"/>
-    <row r="431" ht="15.75" customHeight="1"/>
-    <row r="432" ht="15.75" customHeight="1"/>
-    <row r="433" ht="15.75" customHeight="1"/>
-    <row r="434" ht="15.75" customHeight="1"/>
-    <row r="435" ht="15.75" customHeight="1"/>
-    <row r="436" ht="15.75" customHeight="1"/>
-    <row r="437" ht="15.75" customHeight="1"/>
-    <row r="438" ht="15.75" customHeight="1"/>
-    <row r="439" ht="15.75" customHeight="1"/>
-    <row r="440" ht="15.75" customHeight="1"/>
-    <row r="441" ht="15.75" customHeight="1"/>
-    <row r="442" ht="15.75" customHeight="1"/>
-    <row r="443" ht="15.75" customHeight="1"/>
-    <row r="444" ht="15.75" customHeight="1"/>
-    <row r="445" ht="15.75" customHeight="1"/>
-    <row r="446" ht="15.75" customHeight="1"/>
-    <row r="447" ht="15.75" customHeight="1"/>
-    <row r="448" ht="15.75" customHeight="1"/>
-    <row r="449" ht="15.75" customHeight="1"/>
-    <row r="450" ht="15.75" customHeight="1"/>
-    <row r="451" ht="15.75" customHeight="1"/>
-    <row r="452" ht="15.75" customHeight="1"/>
-    <row r="453" ht="15.75" customHeight="1"/>
-    <row r="454" ht="15.75" customHeight="1"/>
-    <row r="455" ht="15.75" customHeight="1"/>
-    <row r="456" ht="15.75" customHeight="1"/>
-    <row r="457" ht="15.75" customHeight="1"/>
-    <row r="458" ht="15.75" customHeight="1"/>
-    <row r="459" ht="15.75" customHeight="1"/>
-    <row r="460" ht="15.75" customHeight="1"/>
-    <row r="461" ht="15.75" customHeight="1"/>
-    <row r="462" ht="15.75" customHeight="1"/>
-    <row r="463" ht="15.75" customHeight="1"/>
-    <row r="464" ht="15.75" customHeight="1"/>
-    <row r="465" ht="15.75" customHeight="1"/>
-    <row r="466" ht="15.75" customHeight="1"/>
-    <row r="467" ht="15.75" customHeight="1"/>
-    <row r="468" ht="15.75" customHeight="1"/>
-    <row r="469" ht="15.75" customHeight="1"/>
-    <row r="470" ht="15.75" customHeight="1"/>
-    <row r="471" ht="15.75" customHeight="1"/>
-    <row r="472" ht="15.75" customHeight="1"/>
-    <row r="473" ht="15.75" customHeight="1"/>
-    <row r="474" ht="15.75" customHeight="1"/>
-    <row r="475" ht="15.75" customHeight="1"/>
-    <row r="476" ht="15.75" customHeight="1"/>
-    <row r="477" ht="15.75" customHeight="1"/>
-    <row r="478" ht="15.75" customHeight="1"/>
-    <row r="479" ht="15.75" customHeight="1"/>
-    <row r="480" ht="15.75" customHeight="1"/>
-    <row r="481" ht="15.75" customHeight="1"/>
-    <row r="482" ht="15.75" customHeight="1"/>
-    <row r="483" ht="15.75" customHeight="1"/>
-    <row r="484" ht="15.75" customHeight="1"/>
-    <row r="485" ht="15.75" customHeight="1"/>
-    <row r="486" ht="15.75" customHeight="1"/>
-    <row r="487" ht="15.75" customHeight="1"/>
-    <row r="488" ht="15.75" customHeight="1"/>
-    <row r="489" ht="15.75" customHeight="1"/>
-    <row r="490" ht="15.75" customHeight="1"/>
-    <row r="491" ht="15.75" customHeight="1"/>
-    <row r="492" ht="15.75" customHeight="1"/>
-    <row r="493" ht="15.75" customHeight="1"/>
-    <row r="494" ht="15.75" customHeight="1"/>
-    <row r="495" ht="15.75" customHeight="1"/>
-    <row r="496" ht="15.75" customHeight="1"/>
-    <row r="497" ht="15.75" customHeight="1"/>
-    <row r="498" ht="15.75" customHeight="1"/>
-    <row r="499" ht="15.75" customHeight="1"/>
-    <row r="500" ht="15.75" customHeight="1"/>
-    <row r="501" ht="15.75" customHeight="1"/>
-    <row r="502" ht="15.75" customHeight="1"/>
-    <row r="503" ht="15.75" customHeight="1"/>
-    <row r="504" ht="15.75" customHeight="1"/>
-    <row r="505" ht="15.75" customHeight="1"/>
-    <row r="506" ht="15.75" customHeight="1"/>
-    <row r="507" ht="15.75" customHeight="1"/>
-    <row r="508" ht="15.75" customHeight="1"/>
-    <row r="509" ht="15.75" customHeight="1"/>
-    <row r="510" ht="15.75" customHeight="1"/>
-    <row r="511" ht="15.75" customHeight="1"/>
-    <row r="512" ht="15.75" customHeight="1"/>
-    <row r="513" ht="15.75" customHeight="1"/>
-    <row r="514" ht="15.75" customHeight="1"/>
-    <row r="515" ht="15.75" customHeight="1"/>
-    <row r="516" ht="15.75" customHeight="1"/>
-    <row r="517" ht="15.75" customHeight="1"/>
-    <row r="518" ht="15.75" customHeight="1"/>
-    <row r="519" ht="15.75" customHeight="1"/>
-    <row r="520" ht="15.75" customHeight="1"/>
-    <row r="521" ht="15.75" customHeight="1"/>
-    <row r="522" ht="15.75" customHeight="1"/>
-    <row r="523" ht="15.75" customHeight="1"/>
-    <row r="524" ht="15.75" customHeight="1"/>
-    <row r="525" ht="15.75" customHeight="1"/>
-    <row r="526" ht="15.75" customHeight="1"/>
-    <row r="527" ht="15.75" customHeight="1"/>
-    <row r="528" ht="15.75" customHeight="1"/>
-    <row r="529" ht="15.75" customHeight="1"/>
-    <row r="530" ht="15.75" customHeight="1"/>
-    <row r="531" ht="15.75" customHeight="1"/>
-    <row r="532" ht="15.75" customHeight="1"/>
-    <row r="533" ht="15.75" customHeight="1"/>
-    <row r="534" ht="15.75" customHeight="1"/>
-    <row r="535" ht="15.75" customHeight="1"/>
-    <row r="536" ht="15.75" customHeight="1"/>
-    <row r="537" ht="15.75" customHeight="1"/>
-    <row r="538" ht="15.75" customHeight="1"/>
-    <row r="539" ht="15.75" customHeight="1"/>
-    <row r="540" ht="15.75" customHeight="1"/>
-    <row r="541" ht="15.75" customHeight="1"/>
-    <row r="542" ht="15.75" customHeight="1"/>
-    <row r="543" ht="15.75" customHeight="1"/>
-    <row r="544" ht="15.75" customHeight="1"/>
-    <row r="545" ht="15.75" customHeight="1"/>
-    <row r="546" ht="15.75" customHeight="1"/>
-    <row r="547" ht="15.75" customHeight="1"/>
-    <row r="548" ht="15.75" customHeight="1"/>
-    <row r="549" ht="15.75" customHeight="1"/>
-    <row r="550" ht="15.75" customHeight="1"/>
-    <row r="551" ht="15.75" customHeight="1"/>
-    <row r="552" ht="15.75" customHeight="1"/>
-    <row r="553" ht="15.75" customHeight="1"/>
-    <row r="554" ht="15.75" customHeight="1"/>
-    <row r="555" ht="15.75" customHeight="1"/>
-    <row r="556" ht="15.75" customHeight="1"/>
-    <row r="557" ht="15.75" customHeight="1"/>
-    <row r="558" ht="15.75" customHeight="1"/>
-    <row r="559" ht="15.75" customHeight="1"/>
-    <row r="560" ht="15.75" customHeight="1"/>
-    <row r="561" ht="15.75" customHeight="1"/>
-    <row r="562" ht="15.75" customHeight="1"/>
-    <row r="563" ht="15.75" customHeight="1"/>
-    <row r="564" ht="15.75" customHeight="1"/>
-    <row r="565" ht="15.75" customHeight="1"/>
-    <row r="566" ht="15.75" customHeight="1"/>
-    <row r="567" ht="15.75" customHeight="1"/>
-    <row r="568" ht="15.75" customHeight="1"/>
-    <row r="569" ht="15.75" customHeight="1"/>
-    <row r="570" ht="15.75" customHeight="1"/>
-    <row r="571" ht="15.75" customHeight="1"/>
-    <row r="572" ht="15.75" customHeight="1"/>
-    <row r="573" ht="15.75" customHeight="1"/>
-    <row r="574" ht="15.75" customHeight="1"/>
-    <row r="575" ht="15.75" customHeight="1"/>
-    <row r="576" ht="15.75" customHeight="1"/>
-    <row r="577" ht="15.75" customHeight="1"/>
-    <row r="578" ht="15.75" customHeight="1"/>
-    <row r="579" ht="15.75" customHeight="1"/>
-    <row r="580" ht="15.75" customHeight="1"/>
-    <row r="581" ht="15.75" customHeight="1"/>
-    <row r="582" ht="15.75" customHeight="1"/>
-    <row r="583" ht="15.75" customHeight="1"/>
-    <row r="584" ht="15.75" customHeight="1"/>
-    <row r="585" ht="15.75" customHeight="1"/>
-    <row r="586" ht="15.75" customHeight="1"/>
-    <row r="587" ht="15.75" customHeight="1"/>
-    <row r="588" ht="15.75" customHeight="1"/>
-    <row r="589" ht="15.75" customHeight="1"/>
-    <row r="590" ht="15.75" customHeight="1"/>
-    <row r="591" ht="15.75" customHeight="1"/>
-    <row r="592" ht="15.75" customHeight="1"/>
-    <row r="593" ht="15.75" customHeight="1"/>
-    <row r="594" ht="15.75" customHeight="1"/>
-    <row r="595" ht="15.75" customHeight="1"/>
-    <row r="596" ht="15.75" customHeight="1"/>
-    <row r="597" ht="15.75" customHeight="1"/>
-    <row r="598" ht="15.75" customHeight="1"/>
-    <row r="599" ht="15.75" customHeight="1"/>
-    <row r="600" ht="15.75" customHeight="1"/>
-    <row r="601" ht="15.75" customHeight="1"/>
-    <row r="602" ht="15.75" customHeight="1"/>
-    <row r="603" ht="15.75" customHeight="1"/>
-    <row r="604" ht="15.75" customHeight="1"/>
-    <row r="605" ht="15.75" customHeight="1"/>
-    <row r="606" ht="15.75" customHeight="1"/>
-    <row r="607" ht="15.75" customHeight="1"/>
-    <row r="608" ht="15.75" customHeight="1"/>
-    <row r="609" ht="15.75" customHeight="1"/>
-    <row r="610" ht="15.75" customHeight="1"/>
-    <row r="611" ht="15.75" customHeight="1"/>
-    <row r="612" ht="15.75" customHeight="1"/>
-    <row r="613" ht="15.75" customHeight="1"/>
-    <row r="614" ht="15.75" customHeight="1"/>
-    <row r="615" ht="15.75" customHeight="1"/>
-    <row r="616" ht="15.75" customHeight="1"/>
-    <row r="617" ht="15.75" customHeight="1"/>
-    <row r="618" ht="15.75" customHeight="1"/>
-    <row r="619" ht="15.75" customHeight="1"/>
-    <row r="620" ht="15.75" customHeight="1"/>
-    <row r="621" ht="15.75" customHeight="1"/>
-    <row r="622" ht="15.75" customHeight="1"/>
-    <row r="623" ht="15.75" customHeight="1"/>
-    <row r="624" ht="15.75" customHeight="1"/>
-    <row r="625" ht="15.75" customHeight="1"/>
-    <row r="626" ht="15.75" customHeight="1"/>
-    <row r="627" ht="15.75" customHeight="1"/>
-    <row r="628" ht="15.75" customHeight="1"/>
-    <row r="629" ht="15.75" customHeight="1"/>
-    <row r="630" ht="15.75" customHeight="1"/>
-    <row r="631" ht="15.75" customHeight="1"/>
-    <row r="632" ht="15.75" customHeight="1"/>
-    <row r="633" ht="15.75" customHeight="1"/>
-    <row r="634" ht="15.75" customHeight="1"/>
-    <row r="635" ht="15.75" customHeight="1"/>
-    <row r="636" ht="15.75" customHeight="1"/>
-    <row r="637" ht="15.75" customHeight="1"/>
-    <row r="638" ht="15.75" customHeight="1"/>
-    <row r="639" ht="15.75" customHeight="1"/>
-    <row r="640" ht="15.75" customHeight="1"/>
-    <row r="641" ht="15.75" customHeight="1"/>
-    <row r="642" ht="15.75" customHeight="1"/>
-    <row r="643" ht="15.75" customHeight="1"/>
-    <row r="644" ht="15.75" customHeight="1"/>
-    <row r="645" ht="15.75" customHeight="1"/>
-    <row r="646" ht="15.75" customHeight="1"/>
-    <row r="647" ht="15.75" customHeight="1"/>
-    <row r="648" ht="15.75" customHeight="1"/>
-    <row r="649" ht="15.75" customHeight="1"/>
-    <row r="650" ht="15.75" customHeight="1"/>
-    <row r="651" ht="15.75" customHeight="1"/>
-    <row r="652" ht="15.75" customHeight="1"/>
-    <row r="653" ht="15.75" customHeight="1"/>
-    <row r="654" ht="15.75" customHeight="1"/>
-    <row r="655" ht="15.75" customHeight="1"/>
-    <row r="656" ht="15.75" customHeight="1"/>
-    <row r="657" ht="15.75" customHeight="1"/>
-    <row r="658" ht="15.75" customHeight="1"/>
-    <row r="659" ht="15.75" customHeight="1"/>
-    <row r="660" ht="15.75" customHeight="1"/>
-    <row r="661" ht="15.75" customHeight="1"/>
-    <row r="662" ht="15.75" customHeight="1"/>
-    <row r="663" ht="15.75" customHeight="1"/>
-    <row r="664" ht="15.75" customHeight="1"/>
-    <row r="665" ht="15.75" customHeight="1"/>
-    <row r="666" ht="15.75" customHeight="1"/>
-    <row r="667" ht="15.75" customHeight="1"/>
-    <row r="668" ht="15.75" customHeight="1"/>
-    <row r="669" ht="15.75" customHeight="1"/>
-    <row r="670" ht="15.75" customHeight="1"/>
-    <row r="671" ht="15.75" customHeight="1"/>
-    <row r="672" ht="15.75" customHeight="1"/>
-    <row r="673" ht="15.75" customHeight="1"/>
-    <row r="674" ht="15.75" customHeight="1"/>
-    <row r="675" ht="15.75" customHeight="1"/>
-    <row r="676" ht="15.75" customHeight="1"/>
-    <row r="677" ht="15.75" customHeight="1"/>
-    <row r="678" ht="15.75" customHeight="1"/>
-    <row r="679" ht="15.75" customHeight="1"/>
-    <row r="680" ht="15.75" customHeight="1"/>
-    <row r="681" ht="15.75" customHeight="1"/>
-    <row r="682" ht="15.75" customHeight="1"/>
-    <row r="683" ht="15.75" customHeight="1"/>
-    <row r="684" ht="15.75" customHeight="1"/>
-    <row r="685" ht="15.75" customHeight="1"/>
-    <row r="686" ht="15.75" customHeight="1"/>
-    <row r="687" ht="15.75" customHeight="1"/>
-    <row r="688" ht="15.75" customHeight="1"/>
-    <row r="689" ht="15.75" customHeight="1"/>
-    <row r="690" ht="15.75" customHeight="1"/>
-    <row r="691" ht="15.75" customHeight="1"/>
-    <row r="692" ht="15.75" customHeight="1"/>
-    <row r="693" ht="15.75" customHeight="1"/>
-    <row r="694" ht="15.75" customHeight="1"/>
-    <row r="695" ht="15.75" customHeight="1"/>
-    <row r="696" ht="15.75" customHeight="1"/>
-    <row r="697" ht="15.75" customHeight="1"/>
-    <row r="698" ht="15.75" customHeight="1"/>
-    <row r="699" ht="15.75" customHeight="1"/>
-    <row r="700" ht="15.75" customHeight="1"/>
-    <row r="701" ht="15.75" customHeight="1"/>
-    <row r="702" ht="15.75" customHeight="1"/>
-    <row r="703" ht="15.75" customHeight="1"/>
-    <row r="704" ht="15.75" customHeight="1"/>
-    <row r="705" ht="15.75" customHeight="1"/>
-    <row r="706" ht="15.75" customHeight="1"/>
-    <row r="707" ht="15.75" customHeight="1"/>
-    <row r="708" ht="15.75" customHeight="1"/>
-    <row r="709" ht="15.75" customHeight="1"/>
-    <row r="710" ht="15.75" customHeight="1"/>
-    <row r="711" ht="15.75" customHeight="1"/>
-    <row r="712" ht="15.75" customHeight="1"/>
-    <row r="713" ht="15.75" customHeight="1"/>
-    <row r="714" ht="15.75" customHeight="1"/>
-    <row r="715" ht="15.75" customHeight="1"/>
-    <row r="716" ht="15.75" customHeight="1"/>
-    <row r="717" ht="15.75" customHeight="1"/>
-    <row r="718" ht="15.75" customHeight="1"/>
-    <row r="719" ht="15.75" customHeight="1"/>
-    <row r="720" ht="15.75" customHeight="1"/>
-    <row r="721" ht="15.75" customHeight="1"/>
-    <row r="722" ht="15.75" customHeight="1"/>
-    <row r="723" ht="15.75" customHeight="1"/>
-    <row r="724" ht="15.75" customHeight="1"/>
-    <row r="725" ht="15.75" customHeight="1"/>
-    <row r="726" ht="15.75" customHeight="1"/>
-    <row r="727" ht="15.75" customHeight="1"/>
-    <row r="728" ht="15.75" customHeight="1"/>
-    <row r="729" ht="15.75" customHeight="1"/>
-    <row r="730" ht="15.75" customHeight="1"/>
-    <row r="731" ht="15.75" customHeight="1"/>
-    <row r="732" ht="15.75" customHeight="1"/>
-    <row r="733" ht="15.75" customHeight="1"/>
-    <row r="734" ht="15.75" customHeight="1"/>
-    <row r="735" ht="15.75" customHeight="1"/>
-    <row r="736" ht="15.75" customHeight="1"/>
-    <row r="737" ht="15.75" customHeight="1"/>
-    <row r="738" ht="15.75" customHeight="1"/>
-    <row r="739" ht="15.75" customHeight="1"/>
-    <row r="740" ht="15.75" customHeight="1"/>
-    <row r="741" ht="15.75" customHeight="1"/>
-    <row r="742" ht="15.75" customHeight="1"/>
-    <row r="743" ht="15.75" customHeight="1"/>
-    <row r="744" ht="15.75" customHeight="1"/>
-    <row r="745" ht="15.75" customHeight="1"/>
-    <row r="746" ht="15.75" customHeight="1"/>
-    <row r="747" ht="15.75" customHeight="1"/>
-    <row r="748" ht="15.75" customHeight="1"/>
-    <row r="749" ht="15.75" customHeight="1"/>
-    <row r="750" ht="15.75" customHeight="1"/>
-    <row r="751" ht="15.75" customHeight="1"/>
-    <row r="752" ht="15.75" customHeight="1"/>
-    <row r="753" ht="15.75" customHeight="1"/>
-    <row r="754" ht="15.75" customHeight="1"/>
-    <row r="755" ht="15.75" customHeight="1"/>
-    <row r="756" ht="15.75" customHeight="1"/>
-    <row r="757" ht="15.75" customHeight="1"/>
-    <row r="758" ht="15.75" customHeight="1"/>
-    <row r="759" ht="15.75" customHeight="1"/>
-    <row r="760" ht="15.75" customHeight="1"/>
-    <row r="761" ht="15.75" customHeight="1"/>
-    <row r="762" ht="15.75" customHeight="1"/>
-    <row r="763" ht="15.75" customHeight="1"/>
-    <row r="764" ht="15.75" customHeight="1"/>
-    <row r="765" ht="15.75" customHeight="1"/>
-    <row r="766" ht="15.75" customHeight="1"/>
-    <row r="767" ht="15.75" customHeight="1"/>
-    <row r="768" ht="15.75" customHeight="1"/>
-    <row r="769" ht="15.75" customHeight="1"/>
-    <row r="770" ht="15.75" customHeight="1"/>
-    <row r="771" ht="15.75" customHeight="1"/>
-    <row r="772" ht="15.75" customHeight="1"/>
-    <row r="773" ht="15.75" customHeight="1"/>
-    <row r="774" ht="15.75" customHeight="1"/>
-    <row r="775" ht="15.75" customHeight="1"/>
-    <row r="776" ht="15.75" customHeight="1"/>
-    <row r="777" ht="15.75" customHeight="1"/>
-    <row r="778" ht="15.75" customHeight="1"/>
-    <row r="779" ht="15.75" customHeight="1"/>
-    <row r="780" ht="15.75" customHeight="1"/>
-    <row r="781" ht="15.75" customHeight="1"/>
-    <row r="782" ht="15.75" customHeight="1"/>
-    <row r="783" ht="15.75" customHeight="1"/>
-    <row r="784" ht="15.75" customHeight="1"/>
-    <row r="785" ht="15.75" customHeight="1"/>
-    <row r="786" ht="15.75" customHeight="1"/>
-    <row r="787" ht="15.75" customHeight="1"/>
-    <row r="788" ht="15.75" customHeight="1"/>
-    <row r="789" ht="15.75" customHeight="1"/>
-    <row r="790" ht="15.75" customHeight="1"/>
-    <row r="791" ht="15.75" customHeight="1"/>
-    <row r="792" ht="15.75" customHeight="1"/>
-    <row r="793" ht="15.75" customHeight="1"/>
-    <row r="794" ht="15.75" customHeight="1"/>
-    <row r="795" ht="15.75" customHeight="1"/>
-    <row r="796" ht="15.75" customHeight="1"/>
-    <row r="797" ht="15.75" customHeight="1"/>
-    <row r="798" ht="15.75" customHeight="1"/>
-    <row r="799" ht="15.75" customHeight="1"/>
-    <row r="800" ht="15.75" customHeight="1"/>
-    <row r="801" ht="15.75" customHeight="1"/>
-    <row r="802" ht="15.75" customHeight="1"/>
-    <row r="803" ht="15.75" customHeight="1"/>
-    <row r="804" ht="15.75" customHeight="1"/>
-    <row r="805" ht="15.75" customHeight="1"/>
-    <row r="806" ht="15.75" customHeight="1"/>
-    <row r="807" ht="15.75" customHeight="1"/>
-    <row r="808" ht="15.75" customHeight="1"/>
-    <row r="809" ht="15.75" customHeight="1"/>
-    <row r="810" ht="15.75" customHeight="1"/>
-    <row r="811" ht="15.75" customHeight="1"/>
-    <row r="812" ht="15.75" customHeight="1"/>
-    <row r="813" ht="15.75" customHeight="1"/>
-    <row r="814" ht="15.75" customHeight="1"/>
-    <row r="815" ht="15.75" customHeight="1"/>
-    <row r="816" ht="15.75" customHeight="1"/>
-    <row r="817" ht="15.75" customHeight="1"/>
-    <row r="818" ht="15.75" customHeight="1"/>
-    <row r="819" ht="15.75" customHeight="1"/>
-    <row r="820" ht="15.75" customHeight="1"/>
-    <row r="821" ht="15.75" customHeight="1"/>
-    <row r="822" ht="15.75" customHeight="1"/>
-    <row r="823" ht="15.75" customHeight="1"/>
-    <row r="824" ht="15.75" customHeight="1"/>
-    <row r="825" ht="15.75" customHeight="1"/>
-    <row r="826" ht="15.75" customHeight="1"/>
-    <row r="827" ht="15.75" customHeight="1"/>
-    <row r="828" ht="15.75" customHeight="1"/>
-    <row r="829" ht="15.75" customHeight="1"/>
-    <row r="830" ht="15.75" customHeight="1"/>
-    <row r="831" ht="15.75" customHeight="1"/>
-    <row r="832" ht="15.75" customHeight="1"/>
-    <row r="833" ht="15.75" customHeight="1"/>
-    <row r="834" ht="15.75" customHeight="1"/>
-    <row r="835" ht="15.75" customHeight="1"/>
-    <row r="836" ht="15.75" customHeight="1"/>
-    <row r="837" ht="15.75" customHeight="1"/>
-    <row r="838" ht="15.75" customHeight="1"/>
-    <row r="839" ht="15.75" customHeight="1"/>
-    <row r="840" ht="15.75" customHeight="1"/>
-    <row r="841" ht="15.75" customHeight="1"/>
-    <row r="842" ht="15.75" customHeight="1"/>
-    <row r="843" ht="15.75" customHeight="1"/>
-    <row r="844" ht="15.75" customHeight="1"/>
-    <row r="845" ht="15.75" customHeight="1"/>
-    <row r="846" ht="15.75" customHeight="1"/>
-    <row r="847" ht="15.75" customHeight="1"/>
-    <row r="848" ht="15.75" customHeight="1"/>
-    <row r="849" ht="15.75" customHeight="1"/>
-    <row r="850" ht="15.75" customHeight="1"/>
-    <row r="851" ht="15.75" customHeight="1"/>
-    <row r="852" ht="15.75" customHeight="1"/>
-    <row r="853" ht="15.75" customHeight="1"/>
-    <row r="854" ht="15.75" customHeight="1"/>
-    <row r="855" ht="15.75" customHeight="1"/>
-    <row r="856" ht="15.75" customHeight="1"/>
-    <row r="857" ht="15.75" customHeight="1"/>
-    <row r="858" ht="15.75" customHeight="1"/>
-    <row r="859" ht="15.75" customHeight="1"/>
-    <row r="860" ht="15.75" customHeight="1"/>
-    <row r="861" ht="15.75" customHeight="1"/>
-    <row r="862" ht="15.75" customHeight="1"/>
-    <row r="863" ht="15.75" customHeight="1"/>
-    <row r="864" ht="15.75" customHeight="1"/>
-    <row r="865" ht="15.75" customHeight="1"/>
-    <row r="866" ht="15.75" customHeight="1"/>
-    <row r="867" ht="15.75" customHeight="1"/>
-    <row r="868" ht="15.75" customHeight="1"/>
-    <row r="869" ht="15.75" customHeight="1"/>
-    <row r="870" ht="15.75" customHeight="1"/>
-    <row r="871" ht="15.75" customHeight="1"/>
-    <row r="872" ht="15.75" customHeight="1"/>
-    <row r="873" ht="15.75" customHeight="1"/>
-    <row r="874" ht="15.75" customHeight="1"/>
-    <row r="875" ht="15.75" customHeight="1"/>
-    <row r="876" ht="15.75" customHeight="1"/>
-    <row r="877" ht="15.75" customHeight="1"/>
-    <row r="878" ht="15.75" customHeight="1"/>
-    <row r="879" ht="15.75" customHeight="1"/>
-    <row r="880" ht="15.75" customHeight="1"/>
-    <row r="881" ht="15.75" customHeight="1"/>
-    <row r="882" ht="15.75" customHeight="1"/>
-    <row r="883" ht="15.75" customHeight="1"/>
-    <row r="884" ht="15.75" customHeight="1"/>
-    <row r="885" ht="15.75" customHeight="1"/>
-    <row r="886" ht="15.75" customHeight="1"/>
-    <row r="887" ht="15.75" customHeight="1"/>
-    <row r="888" ht="15.75" customHeight="1"/>
-    <row r="889" ht="15.75" customHeight="1"/>
-    <row r="890" ht="15.75" customHeight="1"/>
-    <row r="891" ht="15.75" customHeight="1"/>
-    <row r="892" ht="15.75" customHeight="1"/>
-    <row r="893" ht="15.75" customHeight="1"/>
-    <row r="894" ht="15.75" customHeight="1"/>
-    <row r="895" ht="15.75" customHeight="1"/>
-    <row r="896" ht="15.75" customHeight="1"/>
-    <row r="897" ht="15.75" customHeight="1"/>
-    <row r="898" ht="15.75" customHeight="1"/>
-    <row r="899" ht="15.75" customHeight="1"/>
-    <row r="900" ht="15.75" customHeight="1"/>
-    <row r="901" ht="15.75" customHeight="1"/>
-    <row r="902" ht="15.75" customHeight="1"/>
-    <row r="903" ht="15.75" customHeight="1"/>
-    <row r="904" ht="15.75" customHeight="1"/>
-    <row r="905" ht="15.75" customHeight="1"/>
-    <row r="906" ht="15.75" customHeight="1"/>
-    <row r="907" ht="15.75" customHeight="1"/>
-    <row r="908" ht="15.75" customHeight="1"/>
-    <row r="909" ht="15.75" customHeight="1"/>
-    <row r="910" ht="15.75" customHeight="1"/>
-    <row r="911" ht="15.75" customHeight="1"/>
-    <row r="912" ht="15.75" customHeight="1"/>
-    <row r="913" ht="15.75" customHeight="1"/>
-    <row r="914" ht="15.75" customHeight="1"/>
-    <row r="915" ht="15.75" customHeight="1"/>
-    <row r="916" ht="15.75" customHeight="1"/>
-    <row r="917" ht="15.75" customHeight="1"/>
-    <row r="918" ht="15.75" customHeight="1"/>
-    <row r="919" ht="15.75" customHeight="1"/>
-    <row r="920" ht="15.75" customHeight="1"/>
-    <row r="921" ht="15.75" customHeight="1"/>
-    <row r="922" ht="15.75" customHeight="1"/>
-    <row r="923" ht="15.75" customHeight="1"/>
-    <row r="924" ht="15.75" customHeight="1"/>
-    <row r="925" ht="15.75" customHeight="1"/>
-    <row r="926" ht="15.75" customHeight="1"/>
-    <row r="927" ht="15.75" customHeight="1"/>
-    <row r="928" ht="15.75" customHeight="1"/>
-    <row r="929" ht="15.75" customHeight="1"/>
-    <row r="930" ht="15.75" customHeight="1"/>
-    <row r="931" ht="15.75" customHeight="1"/>
-    <row r="932" ht="15.75" customHeight="1"/>
-    <row r="933" ht="15.75" customHeight="1"/>
-    <row r="934" ht="15.75" customHeight="1"/>
-    <row r="935" ht="15.75" customHeight="1"/>
-    <row r="936" ht="15.75" customHeight="1"/>
-    <row r="937" ht="15.75" customHeight="1"/>
-    <row r="938" ht="15.75" customHeight="1"/>
-    <row r="939" ht="15.75" customHeight="1"/>
-    <row r="940" ht="15.75" customHeight="1"/>
-    <row r="941" ht="15.75" customHeight="1"/>
-    <row r="942" ht="15.75" customHeight="1"/>
-    <row r="943" ht="15.75" customHeight="1"/>
-    <row r="944" ht="15.75" customHeight="1"/>
-    <row r="945" ht="15.75" customHeight="1"/>
-    <row r="946" ht="15.75" customHeight="1"/>
-    <row r="947" ht="15.75" customHeight="1"/>
-    <row r="948" ht="15.75" customHeight="1"/>
-    <row r="949" ht="15.75" customHeight="1"/>
-    <row r="950" ht="15.75" customHeight="1"/>
-    <row r="951" ht="15.75" customHeight="1"/>
-    <row r="952" ht="15.75" customHeight="1"/>
-    <row r="953" ht="15.75" customHeight="1"/>
-    <row r="954" ht="15.75" customHeight="1"/>
-    <row r="955" ht="15.75" customHeight="1"/>
-    <row r="956" ht="15.75" customHeight="1"/>
-    <row r="957" ht="15.75" customHeight="1"/>
-    <row r="958" ht="15.75" customHeight="1"/>
-    <row r="959" ht="15.75" customHeight="1"/>
-    <row r="960" ht="15.75" customHeight="1"/>
-    <row r="961" ht="15.75" customHeight="1"/>
-    <row r="962" ht="15.75" customHeight="1"/>
-    <row r="963" ht="15.75" customHeight="1"/>
-    <row r="964" ht="15.75" customHeight="1"/>
-    <row r="965" ht="15.75" customHeight="1"/>
-    <row r="966" ht="15.75" customHeight="1"/>
-    <row r="967" ht="15.75" customHeight="1"/>
-    <row r="968" ht="15.75" customHeight="1"/>
-    <row r="969" ht="15.75" customHeight="1"/>
-    <row r="970" ht="15.75" customHeight="1"/>
-    <row r="971" ht="15.75" customHeight="1"/>
-    <row r="972" ht="15.75" customHeight="1"/>
-    <row r="973" ht="15.75" customHeight="1"/>
-    <row r="974" ht="15.75" customHeight="1"/>
-    <row r="975" ht="15.75" customHeight="1"/>
-    <row r="976" ht="15.75" customHeight="1"/>
-    <row r="977" ht="15.75" customHeight="1"/>
-    <row r="978" ht="15.75" customHeight="1"/>
-    <row r="979" ht="15.75" customHeight="1"/>
-    <row r="980" ht="15.75" customHeight="1"/>
-    <row r="981" ht="15.75" customHeight="1"/>
-    <row r="982" ht="15.75" customHeight="1"/>
-    <row r="983" ht="15.75" customHeight="1"/>
-    <row r="984" ht="15.75" customHeight="1"/>
-    <row r="985" ht="15.75" customHeight="1"/>
-    <row r="986" ht="15.75" customHeight="1"/>
-    <row r="987" ht="15.75" customHeight="1"/>
-    <row r="988" ht="15.75" customHeight="1"/>
-    <row r="989" ht="15.75" customHeight="1"/>
-    <row r="990" ht="15.75" customHeight="1"/>
-    <row r="991" ht="15.75" customHeight="1"/>
-    <row r="992" ht="15.75" customHeight="1"/>
-    <row r="993" ht="15.75" customHeight="1"/>
-    <row r="994" ht="15.75" customHeight="1"/>
-    <row r="995" ht="15.75" customHeight="1"/>
-    <row r="996" ht="15.75" customHeight="1"/>
-    <row r="997" ht="15.75" customHeight="1"/>
-    <row r="998" ht="15.75" customHeight="1"/>
-    <row r="999" ht="15.75" customHeight="1"/>
-    <row r="1000" ht="15.75" customHeight="1"/>
-    <row r="1001" ht="15.75" customHeight="1"/>
-    <row r="1002" ht="15.75" customHeight="1"/>
-    <row r="1003" ht="15.75" customHeight="1"/>
-    <row r="1004" ht="15.75" customHeight="1"/>
-    <row r="1005" ht="15.75" customHeight="1"/>
+    <row r="234" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="235" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="236" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="237" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="238" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="239" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="240" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1001" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1002" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1003" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1004" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1005" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.3" footer="0.0" header="0.0" left="0.3" right="0.3" top="0.3"/>
+  <pageMargins left="0.3" right="0.3" top="0.3" bottom="0.3" header="0" footer="0"/>
   <pageSetup fitToHeight="0" orientation="landscape"/>
   <headerFooter>
     <oddHeader>&amp;C000000Gantt Chart_x000D_</oddHeader>

--- a/docs/01 - Tai lieu du an/Kế hoạch dự án theo Agile - nhóm 10.xlsx
+++ b/docs/01 - Tai lieu du an/Kế hoạch dự án theo Agile - nhóm 10.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Group-10-156724-Software-Engineering\docs\01 - Tai lieu du an\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IdeaProjects\Group-10-156724-Software-Engineering\docs\01 - Tai lieu du an\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82F85E94-A16E-4C32-83B8-ECB0D1877FCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39F6E1C8-A897-4ED6-B4A7-FC77452E6BC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -49,15 +49,6 @@
   </si>
   <si>
     <t>Phần mềm quản lý chung cư</t>
-  </si>
-  <si>
-    <t>Nguyễn Khắc Tiếp</t>
-  </si>
-  <si>
-    <t>3-tháng 12-2023</t>
-  </si>
-  <si>
-    <t>5-tháng 2-2024</t>
   </si>
   <si>
     <t>SCOPE STATEMENT</t>
@@ -252,6 +243,15 @@
   <si>
     <t xml:space="preserve">Nguyễn Mạnh Thái Hà
 </t>
+  </si>
+  <si>
+    <t>Nguyễn Văn Thành Đạt</t>
+  </si>
+  <si>
+    <t>1-tháng 5-2025</t>
+  </si>
+  <si>
+    <t>5-tháng 7-2025</t>
   </si>
 </sst>
 </file>
@@ -525,7 +525,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:srgbClr val="4472C4"/>
             </a:solidFill>
             <a:ln cmpd="sng">
               <a:solidFill>
@@ -621,76 +621,76 @@
                 <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>45263</c:v>
+                  <c:v>45778</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>45263</c:v>
+                  <c:v>45778</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>45263</c:v>
+                  <c:v>45778</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>45263</c:v>
+                  <c:v>45778</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>45263</c:v>
+                  <c:v>45778</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>45274</c:v>
+                  <c:v>45789</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>45274</c:v>
+                  <c:v>45789</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>45274</c:v>
+                  <c:v>45789</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>45274</c:v>
+                  <c:v>45789</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>45281</c:v>
+                  <c:v>45796</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>45281</c:v>
+                  <c:v>45796</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>45285</c:v>
+                  <c:v>45800</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>45296</c:v>
+                  <c:v>45811</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>45300</c:v>
+                  <c:v>45815</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>45300</c:v>
+                  <c:v>45815</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>45300</c:v>
+                  <c:v>45815</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>45301</c:v>
+                  <c:v>45816</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>45303</c:v>
+                  <c:v>45818</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>45303</c:v>
+                  <c:v>45818</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>45303</c:v>
+                  <c:v>45818</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>45303</c:v>
+                  <c:v>45818</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>45306</c:v>
+                  <c:v>45821</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>45306</c:v>
+                  <c:v>45821</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>45325</c:v>
+                  <c:v>45839</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -723,7 +723,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent2"/>
+              <a:srgbClr val="ED7D31"/>
             </a:solidFill>
             <a:ln cmpd="sng">
               <a:solidFill>
@@ -1285,9 +1285,9 @@
   </sheetPr>
   <dimension ref="A1:AE1005"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E29" sqref="E29"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1392,13 +1392,13 @@
         <v>7</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>8</v>
+        <v>71</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>9</v>
+        <v>72</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="G3" s="3"/>
       <c r="H3" s="11">
@@ -1406,7 +1406,7 @@
       </c>
       <c r="I3" s="6"/>
       <c r="J3" s="7" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="K3" s="8"/>
       <c r="L3" s="1"/>
@@ -1466,34 +1466,34 @@
     <row r="5" spans="1:31" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1"/>
       <c r="B5" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="F5" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="G5" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="H5" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="I5" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="12" t="s">
+      <c r="J5" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="12" t="s">
+      <c r="K5" s="12" t="s">
         <v>18</v>
-      </c>
-      <c r="I5" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="J5" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="K5" s="12" t="s">
-        <v>21</v>
       </c>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
@@ -1520,24 +1520,24 @@
       <c r="A6" s="1"/>
       <c r="B6" s="13"/>
       <c r="C6" s="14" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D6" s="14"/>
       <c r="E6" s="14" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F6" s="14"/>
       <c r="G6" s="15">
-        <v>45263</v>
+        <v>45778</v>
       </c>
       <c r="H6" s="15">
-        <v>45272</v>
+        <v>45787</v>
       </c>
       <c r="I6" s="14">
         <v>9</v>
       </c>
       <c r="J6" s="14" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="K6" s="14"/>
       <c r="L6" s="3"/>
@@ -1565,31 +1565,31 @@
       <c r="A7" s="1"/>
       <c r="B7" s="16"/>
       <c r="C7" s="17" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F7" s="17">
         <v>5</v>
       </c>
       <c r="G7" s="15">
-        <v>45263</v>
+        <v>45778</v>
       </c>
       <c r="H7" s="18">
-        <v>45265</v>
+        <v>45780</v>
       </c>
       <c r="I7" s="17">
         <v>2</v>
       </c>
       <c r="J7" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="K7" s="17" t="s">
         <v>23</v>
-      </c>
-      <c r="K7" s="17" t="s">
-        <v>26</v>
       </c>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
@@ -1616,31 +1616,31 @@
       <c r="A8" s="1"/>
       <c r="B8" s="16"/>
       <c r="C8" s="17" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E8" s="34" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F8" s="17">
         <v>7</v>
       </c>
       <c r="G8" s="15">
-        <v>45263</v>
+        <v>45778</v>
       </c>
       <c r="H8" s="18">
-        <v>45268</v>
+        <v>45781</v>
       </c>
       <c r="I8" s="17">
         <v>3</v>
       </c>
       <c r="J8" s="17" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="K8" s="17" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
@@ -1667,31 +1667,31 @@
       <c r="A9" s="1"/>
       <c r="B9" s="16"/>
       <c r="C9" s="17" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F9" s="17">
         <v>6</v>
       </c>
       <c r="G9" s="15">
-        <v>45263</v>
+        <v>45778</v>
       </c>
       <c r="H9" s="18">
-        <v>45270</v>
+        <v>45783</v>
       </c>
       <c r="I9" s="17">
         <v>5</v>
       </c>
       <c r="J9" s="17" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="K9" s="19" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
@@ -1718,31 +1718,31 @@
       <c r="A10" s="1"/>
       <c r="B10" s="17"/>
       <c r="C10" s="17" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E10" s="34" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F10" s="17">
         <v>6</v>
       </c>
       <c r="G10" s="15">
-        <v>45263</v>
+        <v>45778</v>
       </c>
       <c r="H10" s="18">
-        <v>45272</v>
+        <v>45782</v>
       </c>
       <c r="I10" s="17">
         <v>4</v>
       </c>
       <c r="J10" s="17" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="K10" s="19" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="L10" s="17"/>
       <c r="M10" s="3"/>
@@ -1769,24 +1769,24 @@
       <c r="A11" s="1"/>
       <c r="B11" s="20"/>
       <c r="C11" s="20" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F11" s="20"/>
       <c r="G11" s="21">
-        <v>45274</v>
+        <v>45789</v>
       </c>
       <c r="H11" s="22">
-        <v>45280</v>
+        <v>45795</v>
       </c>
       <c r="I11" s="20">
         <v>6</v>
       </c>
       <c r="J11" s="14" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="K11" s="20"/>
       <c r="L11" s="3"/>
@@ -1814,31 +1814,31 @@
       <c r="A12" s="1"/>
       <c r="B12" s="16"/>
       <c r="C12" s="23" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D12" s="23" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E12" s="23" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F12" s="23">
         <v>6</v>
       </c>
       <c r="G12" s="21">
-        <v>45274</v>
+        <v>45789</v>
       </c>
       <c r="H12" s="22">
-        <v>45280</v>
+        <v>45795</v>
       </c>
       <c r="I12" s="23">
         <v>6</v>
       </c>
       <c r="J12" s="14" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="K12" s="23" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
@@ -1865,31 +1865,31 @@
       <c r="A13" s="1"/>
       <c r="B13" s="16"/>
       <c r="C13" s="23" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D13" s="23" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F13" s="23">
         <v>8</v>
       </c>
       <c r="G13" s="21">
-        <v>45274</v>
+        <v>45789</v>
       </c>
       <c r="H13" s="22">
-        <v>45278</v>
+        <v>45793</v>
       </c>
       <c r="I13" s="23">
         <v>4</v>
       </c>
       <c r="J13" s="14" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="K13" s="23" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
@@ -1916,31 +1916,31 @@
       <c r="A14" s="1"/>
       <c r="B14" s="16"/>
       <c r="C14" s="23" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D14" s="23" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E14" s="17" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F14" s="23">
         <v>8</v>
       </c>
       <c r="G14" s="21">
-        <v>45274</v>
+        <v>45789</v>
       </c>
       <c r="H14" s="22">
-        <v>45280</v>
+        <v>45793</v>
       </c>
       <c r="I14" s="23">
         <v>4</v>
       </c>
       <c r="J14" s="14" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="K14" s="23" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
@@ -1967,24 +1967,24 @@
       <c r="A15" s="1"/>
       <c r="B15" s="16"/>
       <c r="C15" s="24" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D15" s="24"/>
       <c r="E15" s="35" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F15" s="24"/>
       <c r="G15" s="25">
-        <v>45281</v>
+        <v>45796</v>
       </c>
       <c r="H15" s="22">
-        <v>45299</v>
+        <v>45814</v>
       </c>
       <c r="I15" s="24">
         <v>18</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="K15" s="24"/>
       <c r="L15" s="3"/>
@@ -2012,31 +2012,31 @@
       <c r="A16" s="1"/>
       <c r="B16" s="16"/>
       <c r="C16" s="23" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D16" s="23" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E16" s="23" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F16" s="23">
         <v>10</v>
       </c>
       <c r="G16" s="25">
-        <v>45281</v>
+        <v>45796</v>
       </c>
       <c r="H16" s="22">
-        <v>45292</v>
+        <v>45807</v>
       </c>
       <c r="I16" s="23">
         <v>11</v>
       </c>
       <c r="J16" s="14" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="K16" s="23" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
@@ -2063,31 +2063,31 @@
       <c r="A17" s="1"/>
       <c r="B17" s="16"/>
       <c r="C17" s="23" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D17" s="23" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E17" s="17" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F17" s="23">
         <v>7</v>
       </c>
       <c r="G17" s="25">
-        <v>45285</v>
+        <v>45800</v>
       </c>
       <c r="H17" s="22">
-        <v>45296</v>
+        <v>45811</v>
       </c>
       <c r="I17" s="23">
         <v>11</v>
       </c>
       <c r="J17" s="14" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="K17" s="23" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
@@ -2114,31 +2114,31 @@
       <c r="A18" s="1"/>
       <c r="B18" s="16"/>
       <c r="C18" s="23" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D18" s="23" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E18" s="17" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F18" s="23">
         <v>8</v>
       </c>
       <c r="G18" s="25">
-        <v>45296</v>
+        <v>45811</v>
       </c>
       <c r="H18" s="22">
-        <v>45299</v>
+        <v>45814</v>
       </c>
       <c r="I18" s="23">
         <v>3</v>
       </c>
       <c r="J18" s="14" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="K18" s="23" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
@@ -2165,24 +2165,24 @@
       <c r="A19" s="1"/>
       <c r="B19" s="16"/>
       <c r="C19" s="24" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D19" s="24"/>
       <c r="E19" s="24" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F19" s="24"/>
       <c r="G19" s="25">
-        <v>45300</v>
+        <v>45815</v>
       </c>
       <c r="H19" s="22">
-        <v>45303</v>
+        <v>45818</v>
       </c>
       <c r="I19" s="24">
         <v>3</v>
       </c>
       <c r="J19" s="14" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="K19" s="24"/>
       <c r="L19" s="3"/>
@@ -2210,31 +2210,31 @@
       <c r="A20" s="1"/>
       <c r="B20" s="16"/>
       <c r="C20" s="23" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D20" s="23" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E20" s="17" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F20" s="23">
         <v>5</v>
       </c>
       <c r="G20" s="25">
-        <v>45300</v>
+        <v>45815</v>
       </c>
       <c r="H20" s="22">
-        <v>45302</v>
+        <v>45817</v>
       </c>
       <c r="I20" s="23">
         <v>2</v>
       </c>
       <c r="J20" s="14" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="K20" s="23" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="L20" s="3"/>
       <c r="M20" s="3"/>
@@ -2261,31 +2261,31 @@
       <c r="A21" s="1"/>
       <c r="B21" s="16"/>
       <c r="C21" s="23" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D21" s="23" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E21" s="17" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F21" s="23">
         <v>7</v>
       </c>
       <c r="G21" s="25">
-        <v>45300</v>
+        <v>45815</v>
       </c>
       <c r="H21" s="22">
-        <v>45301</v>
+        <v>45816</v>
       </c>
       <c r="I21" s="23">
         <v>1</v>
       </c>
       <c r="J21" s="14" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="K21" s="23" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
@@ -2312,31 +2312,31 @@
       <c r="A22" s="1"/>
       <c r="B22" s="16"/>
       <c r="C22" s="23" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D22" s="23" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E22" s="23" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F22" s="23">
         <v>5</v>
       </c>
       <c r="G22" s="25">
-        <v>45301</v>
+        <v>45816</v>
       </c>
       <c r="H22" s="22">
-        <v>45627</v>
+        <v>45818</v>
       </c>
       <c r="I22" s="23">
         <v>2</v>
       </c>
       <c r="J22" s="14" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="K22" s="23" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="L22" s="3"/>
       <c r="M22" s="3"/>
@@ -2363,24 +2363,24 @@
       <c r="A23" s="1"/>
       <c r="B23" s="24"/>
       <c r="C23" s="24" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D23" s="26"/>
       <c r="E23" s="26" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F23" s="24"/>
       <c r="G23" s="25">
-        <v>45303</v>
+        <v>45818</v>
       </c>
       <c r="H23" s="22">
-        <v>45305</v>
+        <v>45820</v>
       </c>
       <c r="I23" s="24">
         <v>2</v>
       </c>
       <c r="J23" s="14" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="K23" s="24"/>
       <c r="L23" s="3"/>
@@ -2408,31 +2408,31 @@
       <c r="A24" s="1"/>
       <c r="B24" s="16"/>
       <c r="C24" s="23" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D24" s="27" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E24" s="28" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F24" s="23">
         <v>8</v>
       </c>
       <c r="G24" s="25">
-        <v>45303</v>
+        <v>45818</v>
       </c>
       <c r="H24" s="22">
-        <v>45305</v>
+        <v>45820</v>
       </c>
       <c r="I24" s="23">
         <v>2</v>
       </c>
       <c r="J24" s="14" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="K24" s="23" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
@@ -2459,31 +2459,31 @@
       <c r="A25" s="1"/>
       <c r="B25" s="16"/>
       <c r="C25" s="23" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D25" s="29" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E25" s="17" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F25" s="23">
         <v>3</v>
       </c>
       <c r="G25" s="25">
-        <v>45303</v>
+        <v>45818</v>
       </c>
       <c r="H25" s="22">
-        <v>45305</v>
+        <v>45820</v>
       </c>
       <c r="I25" s="23">
         <v>2</v>
       </c>
       <c r="J25" s="14" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="K25" s="23" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
@@ -2510,24 +2510,24 @@
       <c r="A26" s="1"/>
       <c r="B26" s="24"/>
       <c r="C26" s="24" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D26" s="26"/>
       <c r="E26" s="26" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F26" s="24"/>
       <c r="G26" s="25">
-        <v>45303</v>
+        <v>45818</v>
       </c>
       <c r="H26" s="22">
-        <v>45305</v>
+        <v>45820</v>
       </c>
       <c r="I26" s="24">
         <v>2</v>
       </c>
       <c r="J26" s="14" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="K26" s="24"/>
       <c r="L26" s="3"/>
@@ -2545,31 +2545,31 @@
       <c r="A27" s="1"/>
       <c r="B27" s="16"/>
       <c r="C27" s="23" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D27" s="27" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E27" s="28" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F27" s="23">
         <v>10</v>
       </c>
       <c r="G27" s="25">
-        <v>45306</v>
+        <v>45821</v>
       </c>
       <c r="H27" s="22">
-        <v>45325</v>
+        <v>45839</v>
       </c>
       <c r="I27" s="23">
         <v>19</v>
       </c>
       <c r="J27" s="14" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="K27" s="23" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
@@ -2596,31 +2596,31 @@
       <c r="A28" s="1"/>
       <c r="B28" s="16"/>
       <c r="C28" s="23" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D28" s="29" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E28" s="17" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F28" s="23">
         <v>10</v>
       </c>
       <c r="G28" s="25">
-        <v>45306</v>
+        <v>45821</v>
       </c>
       <c r="H28" s="22">
-        <v>45323</v>
+        <v>45838</v>
       </c>
       <c r="I28" s="23">
         <v>17</v>
       </c>
       <c r="J28" s="14" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="K28" s="23" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="L28" s="3"/>
       <c r="M28" s="3"/>
@@ -2647,31 +2647,31 @@
       <c r="A29" s="1"/>
       <c r="B29" s="16"/>
       <c r="C29" s="23" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D29" s="29" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E29" s="17" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F29" s="23">
         <v>10</v>
       </c>
       <c r="G29" s="25">
-        <v>45325</v>
+        <v>45839</v>
       </c>
       <c r="H29" s="22">
-        <v>45327</v>
+        <v>45842</v>
       </c>
       <c r="I29" s="23">
         <v>3</v>
       </c>
       <c r="J29" s="14" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="K29" s="23" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="L29" s="3"/>
       <c r="M29" s="3"/>
